--- a/Theorie/GoBackN/Paketverlust.xlsx
+++ b/Theorie/GoBackN/Paketverlust.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josef\iCloudDrive\Documents\HTWG\Sem_5\Rechnernetze\Aufgaben\Theorie\GoBackN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A378EB-54AC-4C76-ACEC-3EBDEA4DCE13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDFF46C-4E3C-43D6-BB27-369C4CCB1CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{69491014-9A9B-4CFF-8D82-84A350BFE43A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="66">
   <si>
     <t>Ankommend</t>
   </si>
@@ -188,6 +188,15 @@
     <t>P12,P10,P9</t>
   </si>
   <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
     <t>P12,P10</t>
   </si>
   <si>
@@ -216,6 +225,12 @@
   </si>
   <si>
     <t>P19,P16</t>
+  </si>
+  <si>
+    <t>P21,P19,P18,P16,P15</t>
+  </si>
+  <si>
+    <t>P22,P21,P19,P18,P16</t>
   </si>
 </sst>
 </file>
@@ -282,13 +297,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -634,10 +652,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2623F30B-D532-4166-93EC-EACEBFB4DBB0}">
-  <dimension ref="A1:AE115"/>
+  <dimension ref="A1:AE119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="58" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD119" sqref="AD119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,103 +688,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
-      <c r="Q1" s="1" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="Q1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="3"/>
-      <c r="Y1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="4"/>
+      <c r="Y1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="4"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="R2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="U2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="Z2" t="s">
@@ -783,76 +802,76 @@
       <c r="AD2" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E4" si="0">((1125 * D3)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1">
-        <f>A5+3</f>
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <f>A5+1+3</f>
         <v>5</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="J3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
         <f>((1125 * L3)/(5 * 1024)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <f>I3+5</f>
-        <v>9</v>
-      </c>
-      <c r="R3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
         <f t="shared" ref="U3:U4" si="1">((1125 * T3)/(4 * 1024)) * 100</f>
         <v>0</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="4">
         <v>4.5</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="2">
         <f>Q12+10</f>
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
       <c r="Z3" t="s">
         <v>5</v>
@@ -860,618 +879,618 @@
       <c r="AB3">
         <v>0</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="3">
         <f>((1125 * AB3)/(3 * 1024)) * 100</f>
         <v>0</v>
       </c>
       <c r="AD3" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
         <f>I3+1</f>
+        <v>6</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M3:M53" si="2">((1125 * L4)/6144) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="Q4" s="2">
+        <f>Q3+0.5</f>
+        <v>10.5</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" ref="M3:M53" si="2">((1125 * L4)/6144) * 100</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
-      <c r="Q4" s="1">
-        <f>Q3+0.5</f>
-        <v>9.5</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W4" s="3">
+      <c r="W4" s="4">
         <v>4</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="2">
         <f>Y3+0.5</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="3">
         <f t="shared" ref="AC4:AC67" si="3">((1125 * AB4)/(3 * 1024)) * 100</f>
         <v>0</v>
       </c>
       <c r="AD4" t="s">
         <v>5</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <f t="shared" ref="A5:A41" si="4">A4+1</f>
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <f>((1125 * D5)/6144) * 100</f>
         <v>18.310546875</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" ref="I5:I53" si="5">I4+1</f>
-        <v>6</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
-      <c r="Q5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="6">Q4+0.5</f>
-        <v>10</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
+        <v>11</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
         <f>((1125 * T5)/(4 * 1024)) * 100</f>
         <v>0</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="4">
         <v>3.5</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="2">
         <f t="shared" ref="Y5:Y68" si="7">Y4+0.5</f>
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD5" t="s">
         <v>5</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AE5" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" ref="E6:E42" si="8">((1125 * D6)/6144) * 100</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ref="E6:E46" si="8">((1125 * D6)/6144) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
         <f>((1125 * L6)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <f t="shared" si="6"/>
-        <v>10.5</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
         <f t="shared" ref="U6:U69" si="9">((1125 * T6)/(4 * 1024)) * 100</f>
         <v>0</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="1">
+      <c r="W6" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="2">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD6" t="s">
         <v>5</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="8"/>
         <v>18.310546875</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
+        <v>9</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
         <f>((1125 * L7)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="3"/>
-      <c r="Q7" s="1">
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="Q7" s="2">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
+        <v>12</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="4">
         <v>2.5</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="2">
         <f t="shared" si="7"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD7" t="s">
         <v>5</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AE7" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="8"/>
         <v>18.310546875</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <f>((1125 * L8)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
+      <c r="N8" s="3"/>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
         <f t="shared" si="6"/>
-        <v>11.5</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="V8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W8" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="1">
+      <c r="W8" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="2">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD8" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AE8" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="8"/>
         <v>18.310546875</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="3">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <f>((1125 * L9)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="Q9" s="1">
+      <c r="O9" s="4"/>
+      <c r="Q9" s="2">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="R9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
-      <c r="U9" s="2">
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="4">
         <v>1.5</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="2">
         <f t="shared" si="7"/>
-        <v>26.5</v>
+        <v>27.5</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AC9" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD9" t="s">
         <v>5</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AE9" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="8"/>
         <v>18.310546875</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
+        <v>12</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <f>((1125 * L10)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="N10" s="3"/>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
         <f t="shared" si="6"/>
-        <v>12.5</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2" t="s">
+        <v>13.5</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="2">
-        <v>1</v>
-      </c>
-      <c r="U10" s="2">
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W10" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="1">
+      <c r="W10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="2">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AC10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD10" t="s">
         <v>5</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE10" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="8"/>
         <v>36.62109375</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+        <v>13</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
         <f>((1125 * L11)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="3"/>
-      <c r="Q11" s="1">
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="Q11" s="2">
         <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T11" s="2">
-        <v>1</v>
-      </c>
-      <c r="U11" s="2">
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="V11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="4">
         <v>0.5</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="2">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="Z11" t="s">
         <v>6</v>
@@ -1482,634 +1501,634 @@
       <c r="AB11">
         <v>1</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AC11" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD11" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AE11" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="8"/>
         <v>18.310546875</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="J12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <f>((1125 * L12)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
         <f t="shared" si="6"/>
-        <v>13.5</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="V12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="4">
         <v>4.5</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="2">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB12">
         <v>0</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AC12" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD12" t="s">
         <v>6</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AE12" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" si="8"/>
         <v>36.62109375</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
         <f>((1125 * L13)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="3"/>
-      <c r="Q13" s="1">
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="Q13" s="2">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
+        <v>15</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="V13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="4">
         <v>4</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y13" s="2">
         <f t="shared" si="7"/>
-        <v>28.5</v>
+        <v>29.5</v>
       </c>
       <c r="AB13">
         <v>0</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AC13" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD13" t="s">
         <v>6</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AE13" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
         <f t="shared" si="8"/>
         <v>36.62109375</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <f>((1125 * L14)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="N14" s="3"/>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
         <f t="shared" si="6"/>
-        <v>14.5</v>
-      </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="V14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="4">
         <v>3.5</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="2">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB14">
         <v>0</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AC14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD14" t="s">
         <v>6</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AE14" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" si="8"/>
         <v>36.62109375</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2">
         <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <f>((1125 * L15)/6144) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="Q15" s="2">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <f>((1125 * L15)/6144) * 100</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="Q15" s="1">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="2">
-        <v>1</v>
-      </c>
-      <c r="U15" s="2">
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
+      <c r="U15" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V15" s="2" t="s">
+      <c r="V15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="1">
+      <c r="W15" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="2">
         <f t="shared" si="7"/>
-        <v>29.5</v>
+        <v>30.5</v>
       </c>
       <c r="AB15">
         <v>0</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AC15" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD15" t="s">
         <v>6</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AE15" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="8"/>
         <v>36.62109375</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
+        <v>18</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
         <f>((1125 * L16)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="N16" s="3"/>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
         <f t="shared" si="6"/>
-        <v>15.5</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2" t="s">
+        <v>16.5</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T16" s="2">
-        <v>1</v>
-      </c>
-      <c r="U16" s="2">
+      <c r="T16" s="3">
+        <v>1</v>
+      </c>
+      <c r="U16" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V16" s="2" t="s">
+      <c r="V16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="4">
         <v>2.5</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="2">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB16">
         <v>0</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AC16" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD16" t="s">
         <v>6</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AE16" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <f>A16+1</f>
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="2">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <f t="shared" si="8"/>
         <v>54.931640625</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
+        <v>19</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <f>((1125 * L17)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="3"/>
-      <c r="Q17" s="1">
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
+      <c r="Q17" s="2">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T17" s="2">
-        <v>1</v>
-      </c>
-      <c r="U17" s="2">
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V17" s="2" t="s">
+      <c r="V17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W17" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="1">
+      <c r="W17" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="2">
         <f t="shared" si="7"/>
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="AB17">
         <v>0</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AC17" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD17" t="s">
         <v>6</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AE17" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
         <f t="shared" si="8"/>
         <v>36.62109375</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <f>((1125 * L18)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1">
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
         <f t="shared" si="6"/>
-        <v>16.5</v>
-      </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2" t="s">
+        <v>17.5</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T18" s="2">
-        <v>1</v>
-      </c>
-      <c r="U18" s="2">
+      <c r="T18" s="3">
+        <v>1</v>
+      </c>
+      <c r="U18" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="V18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="4">
         <v>1.5</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18" s="2">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB18">
         <v>0</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AC18" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD18" t="s">
         <v>6</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AE18" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="2">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
         <f t="shared" si="8"/>
         <v>54.931640625</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+        <v>21</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
         <f>((1125 * L19)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="3"/>
-      <c r="Q19" s="1">
+      <c r="N19" s="3"/>
+      <c r="O19" s="4"/>
+      <c r="Q19" s="2">
         <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T19" s="2">
-        <v>1</v>
-      </c>
-      <c r="U19" s="2">
+      <c r="T19" s="3">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V19" s="2" t="s">
+      <c r="V19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="1">
+      <c r="W19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="2">
         <f t="shared" si="7"/>
-        <v>31.5</v>
+        <v>32.5</v>
       </c>
       <c r="Z19" t="s">
         <v>7</v>
@@ -2120,80 +2139,80 @@
       <c r="AB19">
         <v>1</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AC19" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD19" t="s">
         <v>6</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AE19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="2">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <f t="shared" si="8"/>
         <v>54.931640625</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
         <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
+        <v>22</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <f>((1125 * L20)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="1">
+      <c r="N20" s="3"/>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
         <f t="shared" si="6"/>
-        <v>17.5</v>
-      </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2" t="s">
+        <v>18.5</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T20" s="2">
-        <v>1</v>
-      </c>
-      <c r="U20" s="2">
+      <c r="T20" s="3">
+        <v>1</v>
+      </c>
+      <c r="U20" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="V20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="4">
         <v>0.5</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="2">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA20" t="s">
         <v>7</v>
@@ -2201,564 +2220,564 @@
       <c r="AB20">
         <v>1</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AC20" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD20" t="s">
         <v>6</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AE20" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="2">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" si="8"/>
         <v>54.931640625</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="3">
-        <v>3</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="J21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <f>((1125 * L21)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="3"/>
-      <c r="Q21" s="1">
+      <c r="O21" s="4"/>
+      <c r="Q21" s="2">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="R21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="2">
-        <v>1</v>
-      </c>
-      <c r="U21" s="2">
+      <c r="T21" s="3">
+        <v>1</v>
+      </c>
+      <c r="U21" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="V21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="4">
         <v>4.5</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="2">
         <f t="shared" si="7"/>
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
       <c r="AB21">
         <v>0</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AC21" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD21" t="s">
         <v>7</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AE21" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="2">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <f t="shared" si="8"/>
         <v>54.931640625</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="3">
-        <v>2</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
+        <v>24</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <f>((1125 * L22)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="1">
+      <c r="N22" s="3"/>
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
         <f t="shared" si="6"/>
-        <v>18.5</v>
-      </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2" t="s">
+        <v>19.5</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="2">
-        <v>1</v>
-      </c>
-      <c r="U22" s="2">
+      <c r="T22" s="3">
+        <v>1</v>
+      </c>
+      <c r="U22" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V22" s="2" t="s">
+      <c r="V22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="4">
         <v>4</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22" s="2">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AC22" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD22" t="s">
         <v>7</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AE22" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <f t="shared" si="8"/>
         <v>73.2421875</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
+        <v>25</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <f>((1125 * L23)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="3"/>
-      <c r="Q23" s="1">
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="Q23" s="2">
         <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T23" s="2">
-        <v>1</v>
-      </c>
-      <c r="U23" s="2">
+      <c r="T23" s="3">
+        <v>1</v>
+      </c>
+      <c r="U23" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V23" s="2" t="s">
+      <c r="V23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="4">
         <v>3.5</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23" s="2">
         <f t="shared" si="7"/>
-        <v>33.5</v>
+        <v>34.5</v>
       </c>
       <c r="AB23">
         <v>0</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AC23" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD23" t="s">
         <v>7</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AE23" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="2">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
         <f t="shared" si="8"/>
         <v>54.931640625</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="3">
-        <v>3</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="J24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <f>((1125 * L24)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="1">
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
         <f t="shared" si="6"/>
-        <v>19.5</v>
-      </c>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2" t="s">
+        <v>20.5</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="2">
-        <v>1</v>
-      </c>
-      <c r="U24" s="2">
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
+      <c r="U24" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V24" s="2" t="s">
+      <c r="V24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W24" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y24" s="1">
+      <c r="W24" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="2">
         <f t="shared" si="7"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AC24" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD24" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AE24" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>4</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <f t="shared" si="8"/>
         <v>73.2421875</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="3">
-        <v>2</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
+        <v>27</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
         <f>((1125 * L25)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="3"/>
-      <c r="Q25" s="1">
+      <c r="N25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="Q25" s="2">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T25" s="2">
-        <v>1</v>
-      </c>
-      <c r="U25" s="2">
+      <c r="T25" s="3">
+        <v>1</v>
+      </c>
+      <c r="U25" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V25" s="2" t="s">
+      <c r="V25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="4">
         <v>2.5</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y25" s="2">
         <f t="shared" si="7"/>
-        <v>34.5</v>
+        <v>35.5</v>
       </c>
       <c r="AB25">
         <v>0</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AC25" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD25" t="s">
         <v>7</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AE25" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>4</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <f t="shared" si="8"/>
         <v>73.2421875</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
+        <v>28</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <f>((1125 * L26)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="1">
+      <c r="N26" s="3"/>
+      <c r="O26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
         <f t="shared" si="6"/>
-        <v>20.5</v>
-      </c>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2" t="s">
+        <v>21.5</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="2">
-        <v>1</v>
-      </c>
-      <c r="U26" s="2">
+      <c r="T26" s="3">
+        <v>1</v>
+      </c>
+      <c r="U26" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V26" s="2" t="s">
+      <c r="V26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W26" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y26" s="1">
+      <c r="W26" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="2">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB26">
         <v>0</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AC26" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD26" t="s">
         <v>7</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AE26" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>4</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <f t="shared" si="8"/>
         <v>73.2421875</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="3">
-        <v>3</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="I27" s="2">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="J27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <f>((1125 * L27)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O27" s="3"/>
-      <c r="Q27" s="1">
+      <c r="O27" s="4"/>
+      <c r="Q27" s="2">
         <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="R27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="S27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T27" s="2">
-        <v>2</v>
-      </c>
-      <c r="U27" s="2">
+      <c r="T27" s="3">
+        <v>2</v>
+      </c>
+      <c r="U27" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V27" s="2" t="s">
+      <c r="V27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="4">
         <v>1.5</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Y27" s="2">
         <f t="shared" si="7"/>
-        <v>35.5</v>
+        <v>36.5</v>
       </c>
       <c r="Z27" t="s">
         <v>8</v>
@@ -2769,80 +2788,80 @@
       <c r="AB27">
         <v>1</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AC27" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD27" t="s">
         <v>7</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AE27" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>4</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <f t="shared" si="8"/>
         <v>73.2421875</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="3">
-        <v>2</v>
-      </c>
-      <c r="I28" s="1">
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
+        <v>30</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
         <f>((1125 * L28)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="1">
+      <c r="N28" s="3"/>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
         <f t="shared" si="6"/>
-        <v>21.5</v>
-      </c>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2" t="s">
+        <v>22.5</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T28" s="2">
-        <v>2</v>
-      </c>
-      <c r="U28" s="2">
+      <c r="T28" s="3">
+        <v>2</v>
+      </c>
+      <c r="U28" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V28" s="2" t="s">
+      <c r="V28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W28" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="1">
+      <c r="W28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="2">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA28" t="s">
         <v>8</v>
@@ -2850,80 +2869,80 @@
       <c r="AB28">
         <v>1</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AC28" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD28" t="s">
         <v>7</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AE28" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>5</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <f t="shared" si="8"/>
         <v>91.552734375</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
+        <v>31</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <f>((1125 * L29)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="3"/>
-      <c r="Q29" s="1">
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
+      <c r="Q29" s="2">
         <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T29" s="2">
-        <v>2</v>
-      </c>
-      <c r="U29" s="2">
+      <c r="T29" s="3">
+        <v>2</v>
+      </c>
+      <c r="U29" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V29" s="2" t="s">
+      <c r="V29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="4">
         <v>0.5</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Y29" s="2">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>37.5</v>
       </c>
       <c r="AA29" t="s">
         <v>8</v>
@@ -2931,480 +2950,480 @@
       <c r="AB29">
         <v>1</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AC29" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD29" t="s">
         <v>7</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AE29" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>4</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <f t="shared" si="8"/>
         <v>73.2421875</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="3">
-        <v>3</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+      <c r="I30" s="2">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="J30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
         <f>((1125 * L30)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="1">
+      <c r="O30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
         <f t="shared" si="6"/>
-        <v>22.5</v>
-      </c>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2" t="s">
+        <v>23.5</v>
+      </c>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T30" s="2">
-        <v>1</v>
-      </c>
-      <c r="U30" s="2">
+      <c r="T30" s="3">
+        <v>1</v>
+      </c>
+      <c r="U30" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V30" s="2" t="s">
+      <c r="V30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W30" s="4">
         <v>4.5</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Y30" s="2">
         <f t="shared" si="7"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB30">
         <v>0</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AC30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD30" t="s">
         <v>8</v>
       </c>
-      <c r="AE30" s="3">
+      <c r="AE30" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>5</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <f t="shared" si="8"/>
         <v>91.552734375</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="G31" s="4">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
         <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
+        <v>33</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
         <f>((1125 * L31)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="3"/>
-      <c r="Q31" s="1">
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
+      <c r="Q31" s="2">
         <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T31" s="2">
-        <v>1</v>
-      </c>
-      <c r="U31" s="2">
+      <c r="T31" s="3">
+        <v>1</v>
+      </c>
+      <c r="U31" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V31" s="2" t="s">
+      <c r="V31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W31" s="3">
+      <c r="W31" s="4">
         <v>4</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Y31" s="2">
         <f t="shared" si="7"/>
-        <v>37.5</v>
+        <v>38.5</v>
       </c>
       <c r="AB31">
         <v>0</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AC31" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD31" t="s">
         <v>8</v>
       </c>
-      <c r="AE31" s="3">
+      <c r="AE31" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <v>5</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <f t="shared" si="8"/>
         <v>91.552734375</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
+        <v>34</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <f>((1125 * L32)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="1">
+      <c r="N32" s="3"/>
+      <c r="O32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
         <f t="shared" si="6"/>
-        <v>23.5</v>
-      </c>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2" t="s">
+        <v>24.5</v>
+      </c>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T32" s="2">
-        <v>1</v>
-      </c>
-      <c r="U32" s="2">
+      <c r="T32" s="3">
+        <v>1</v>
+      </c>
+      <c r="U32" s="3">
         <f t="shared" si="9"/>
         <v>27.4658203125</v>
       </c>
-      <c r="V32" s="2" t="s">
+      <c r="V32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="4">
         <v>3.5</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Y32" s="2">
         <f t="shared" si="7"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB32">
         <v>0</v>
       </c>
-      <c r="AC32" s="2">
+      <c r="AC32" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD32" t="s">
         <v>8</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AE32" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <v>5</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <f t="shared" si="8"/>
         <v>91.552734375</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="3">
-        <v>3</v>
-      </c>
-      <c r="I33" s="1">
+      <c r="G33" s="4">
+        <v>3</v>
+      </c>
+      <c r="I33" s="2">
         <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="J33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <f>((1125 * L33)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="N33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O33" s="3"/>
-      <c r="Q33" s="1">
+      <c r="O33" s="4"/>
+      <c r="Q33" s="2">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="R33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="S33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T33" s="2">
-        <v>2</v>
-      </c>
-      <c r="U33" s="2">
+      <c r="T33" s="3">
+        <v>2</v>
+      </c>
+      <c r="U33" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V33" s="2" t="s">
+      <c r="V33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W33" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y33" s="1">
+      <c r="W33" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="2">
         <f t="shared" si="7"/>
-        <v>38.5</v>
+        <v>39.5</v>
       </c>
       <c r="AB33">
         <v>0</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AC33" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD33" t="s">
         <v>8</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AE33" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>5</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <f t="shared" si="8"/>
         <v>91.552734375</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="3">
-        <v>2</v>
-      </c>
-      <c r="I34" s="1">
+      <c r="G34" s="4">
+        <v>2</v>
+      </c>
+      <c r="I34" s="2">
         <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
+        <v>36</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
         <f>((1125 * L34)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="1">
+      <c r="N34" s="3"/>
+      <c r="O34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
         <f t="shared" si="6"/>
-        <v>24.5</v>
-      </c>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2" t="s">
+        <v>25.5</v>
+      </c>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T34" s="2">
-        <v>2</v>
-      </c>
-      <c r="U34" s="2">
+      <c r="T34" s="3">
+        <v>2</v>
+      </c>
+      <c r="U34" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V34" s="2" t="s">
+      <c r="V34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W34" s="4">
         <v>2.5</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="Y34" s="2">
         <f t="shared" si="7"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB34">
         <v>0</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AC34" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD34" t="s">
         <v>8</v>
       </c>
-      <c r="AE34" s="3">
+      <c r="AE34" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <v>5</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <f t="shared" si="8"/>
         <v>91.552734375</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1">
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
         <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
+        <v>37</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <f>((1125 * L35)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="3"/>
-      <c r="Q35" s="1">
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="Q35" s="2">
         <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T35" s="2">
-        <v>2</v>
-      </c>
-      <c r="U35" s="2">
+      <c r="T35" s="3">
+        <v>2</v>
+      </c>
+      <c r="U35" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V35" s="2" t="s">
+      <c r="V35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W35" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y35" s="1">
+      <c r="W35" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="2">
         <f t="shared" si="7"/>
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="Z35" t="s">
         <v>9</v>
@@ -3415,84 +3434,84 @@
       <c r="AB35">
         <v>1</v>
       </c>
-      <c r="AC35" s="2">
+      <c r="AC35" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD35" t="s">
         <v>8</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AE35" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <v>4</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <f t="shared" si="8"/>
         <v>73.2421875</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="3">
-        <v>3</v>
-      </c>
-      <c r="I36" s="1">
+      <c r="G36" s="4">
+        <v>3</v>
+      </c>
+      <c r="I36" s="2">
         <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="J36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
         <f>((1125 * L36)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="N36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O36" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="1">
+      <c r="O36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2">
         <f t="shared" si="6"/>
-        <v>25.5</v>
-      </c>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2" t="s">
+        <v>26.5</v>
+      </c>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T36" s="2">
-        <v>2</v>
-      </c>
-      <c r="U36" s="2">
+      <c r="T36" s="3">
+        <v>2</v>
+      </c>
+      <c r="U36" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V36" s="2" t="s">
+      <c r="V36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W36" s="3">
+      <c r="W36" s="4">
         <v>1.5</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="Y36" s="2">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA36" t="s">
         <v>9</v>
@@ -3500,80 +3519,80 @@
       <c r="AB36">
         <v>1</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AC36" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD36" t="s">
         <v>8</v>
       </c>
-      <c r="AE36" s="3">
+      <c r="AE36" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>5</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <f t="shared" si="8"/>
         <v>91.552734375</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="3">
-        <v>2</v>
-      </c>
-      <c r="I37" s="1">
+      <c r="G37" s="4">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2">
         <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
+        <v>39</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
         <f>((1125 * L37)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="3"/>
-      <c r="Q37" s="1">
+      <c r="N37" s="3"/>
+      <c r="O37" s="4"/>
+      <c r="Q37" s="2">
         <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T37" s="2">
-        <v>2</v>
-      </c>
-      <c r="U37" s="2">
+      <c r="R37" s="3"/>
+      <c r="S37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37" s="3">
+        <v>2</v>
+      </c>
+      <c r="U37" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V37" s="2" t="s">
+      <c r="V37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W37" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="1">
+      <c r="W37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="2">
         <f t="shared" si="7"/>
-        <v>40.5</v>
+        <v>41.5</v>
       </c>
       <c r="AA37" t="s">
         <v>9</v>
@@ -3581,80 +3600,80 @@
       <c r="AB37">
         <v>1</v>
       </c>
-      <c r="AC37" s="2">
+      <c r="AC37" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD37" t="s">
         <v>8</v>
       </c>
-      <c r="AE37" s="3">
+      <c r="AE37" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>5</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <f t="shared" si="8"/>
         <v>91.552734375</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1">
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
         <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
+        <v>40</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
         <f>((1125 * L38)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="1">
+      <c r="N38" s="3"/>
+      <c r="O38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
         <f t="shared" si="6"/>
-        <v>26.5</v>
-      </c>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2" t="s">
+        <v>27.5</v>
+      </c>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T38" s="2">
-        <v>2</v>
-      </c>
-      <c r="U38" s="2">
+      <c r="T38" s="3">
+        <v>2</v>
+      </c>
+      <c r="U38" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V38" s="2" t="s">
+      <c r="V38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W38" s="3">
+      <c r="W38" s="4">
         <v>0.5</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="2">
         <f t="shared" si="7"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA38" t="s">
         <v>9</v>
@@ -3662,389 +3681,400 @@
       <c r="AB38">
         <v>1</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AC38" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD38" t="s">
         <v>8</v>
       </c>
-      <c r="AE38" s="3">
+      <c r="AE38" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <v>5</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <f t="shared" si="8"/>
         <v>91.552734375</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="3">
-        <v>3</v>
-      </c>
-      <c r="I39" s="1">
+      <c r="G39" s="4">
+        <v>3</v>
+      </c>
+      <c r="I39" s="2">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="J39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="K39" s="3"/>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
         <f>((1125 * L39)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O39" s="3"/>
-      <c r="Q39" s="1">
+      <c r="O39" s="4"/>
+      <c r="Q39" s="2">
         <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="R39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="S39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T39" s="2">
-        <v>2</v>
-      </c>
-      <c r="U39" s="2">
+      <c r="T39" s="3">
+        <v>2</v>
+      </c>
+      <c r="U39" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V39" s="2" t="s">
+      <c r="V39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W39" s="3">
+      <c r="W39" s="4">
         <v>4.5</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Y39" s="2">
         <f t="shared" si="7"/>
-        <v>41.5</v>
+        <v>42.5</v>
       </c>
       <c r="AB39">
         <v>0</v>
       </c>
-      <c r="AC39" s="2">
+      <c r="AC39" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD39" t="s">
         <v>9</v>
       </c>
-      <c r="AE39" s="3">
+      <c r="AE39" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>5</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <f t="shared" si="8"/>
         <v>91.552734375</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="3">
-        <v>2</v>
-      </c>
-      <c r="I40" s="1">
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2">
         <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
+        <v>42</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
         <f>((1125 * L40)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="1">
+      <c r="N40" s="3"/>
+      <c r="O40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="2">
         <f t="shared" si="6"/>
-        <v>27.5</v>
-      </c>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2" t="s">
+        <v>28.5</v>
+      </c>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T40" s="2">
-        <v>2</v>
-      </c>
-      <c r="U40" s="2">
+      <c r="T40" s="3">
+        <v>2</v>
+      </c>
+      <c r="U40" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V40" s="2" t="s">
+      <c r="V40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W40" s="3">
+      <c r="W40" s="4">
         <v>4</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Y40" s="2">
         <f t="shared" si="7"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB40">
         <v>0</v>
       </c>
-      <c r="AC40" s="2">
+      <c r="AC40" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD40" t="s">
         <v>9</v>
       </c>
-      <c r="AE40" s="3">
+      <c r="AE40" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <v>5</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <f t="shared" si="8"/>
         <v>91.552734375</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1">
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
         <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
+        <v>43</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <f>((1125 * L41)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="3"/>
-      <c r="Q41" s="1">
+      <c r="N41" s="3"/>
+      <c r="O41" s="4"/>
+      <c r="Q41" s="2">
         <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T41" s="2">
-        <v>2</v>
-      </c>
-      <c r="U41" s="2">
+      <c r="T41" s="3">
+        <v>2</v>
+      </c>
+      <c r="U41" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V41" s="2" t="s">
+      <c r="V41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W41" s="4">
         <v>3.5</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="Y41" s="2">
         <f t="shared" si="7"/>
-        <v>42.5</v>
+        <v>43.5</v>
       </c>
       <c r="AB41">
         <v>0</v>
       </c>
-      <c r="AC41" s="2">
+      <c r="AC41" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD41" t="s">
         <v>9</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AE41" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>39</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>4</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <f t="shared" si="8"/>
         <v>73.2421875</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="3">
-        <v>3</v>
-      </c>
-      <c r="I42" s="1">
+      <c r="G42" s="4">
+        <v>3</v>
+      </c>
+      <c r="I42" s="2">
         <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="J42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="K42" s="3"/>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <f>((1125 * L42)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="N42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O42" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="1">
+      <c r="O42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="2">
         <f t="shared" si="6"/>
-        <v>28.5</v>
-      </c>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2" t="s">
+        <v>29.5</v>
+      </c>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T42" s="2">
-        <v>2</v>
-      </c>
-      <c r="U42" s="2">
+      <c r="T42" s="3">
+        <v>2</v>
+      </c>
+      <c r="U42" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V42" s="2" t="s">
+      <c r="V42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W42" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y42" s="1">
+      <c r="W42" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="2">
         <f t="shared" si="7"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB42">
         <v>0</v>
       </c>
-      <c r="AC42" s="2">
+      <c r="AC42" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD42" t="s">
         <v>9</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AE42" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>40</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3">
-        <v>2</v>
-      </c>
-      <c r="I43" s="1">
+      <c r="B43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="7">
+        <v>5</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="8"/>
+        <v>91.552734375</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="4">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2">
         <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
+        <v>45</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <f>((1125 * L43)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="3"/>
-      <c r="Q43" s="1">
+      <c r="N43" s="3"/>
+      <c r="O43" s="4"/>
+      <c r="Q43" s="2">
         <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T43" s="2">
-        <v>2</v>
-      </c>
-      <c r="U43" s="2">
+      <c r="T43" s="3">
+        <v>2</v>
+      </c>
+      <c r="U43" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V43" s="2" t="s">
+      <c r="V43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W43" s="4">
         <v>2.5</v>
       </c>
-      <c r="Y43" s="1">
+      <c r="Y43" s="2">
         <f t="shared" si="7"/>
-        <v>43.5</v>
+        <v>44.5</v>
       </c>
       <c r="Z43" t="s">
         <v>10</v>
@@ -4055,62 +4085,78 @@
       <c r="AB43">
         <v>1</v>
       </c>
-      <c r="AC43" s="2">
+      <c r="AC43" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD43" t="s">
         <v>9</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AE43" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="7">
+        <v>5</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="8"/>
+        <v>91.552734375</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
         <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
+        <v>46</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <f>((1125 * L44)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="1">
+      <c r="N44" s="3"/>
+      <c r="O44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="2">
         <f t="shared" si="6"/>
-        <v>29.5</v>
-      </c>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2" t="s">
+        <v>30.5</v>
+      </c>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T44" s="2">
-        <v>2</v>
-      </c>
-      <c r="U44" s="2">
+      <c r="T44" s="3">
+        <v>2</v>
+      </c>
+      <c r="U44" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V44" s="2" t="s">
+      <c r="V44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W44" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y44" s="1">
+      <c r="W44" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="2">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA44" t="s">
         <v>10</v>
@@ -4118,63 +4164,85 @@
       <c r="AB44">
         <v>1</v>
       </c>
-      <c r="AC44" s="2">
+      <c r="AC44" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD44" t="s">
         <v>9</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AE44" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="I45" s="1">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="7">
+        <v>5</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="8"/>
+        <v>91.552734375</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="4">
+        <v>3</v>
+      </c>
+      <c r="I45" s="2">
         <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="J45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <f>((1125 * L45)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="N45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O45" s="3"/>
-      <c r="Q45" s="1">
+      <c r="O45" s="4"/>
+      <c r="Q45" s="2">
         <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="R45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="S45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T45" s="2">
-        <v>3</v>
-      </c>
-      <c r="U45" s="2">
+      <c r="T45" s="3">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V45" s="2" t="s">
+      <c r="V45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W45" s="3">
+      <c r="W45" s="4">
         <v>1.5</v>
       </c>
-      <c r="Y45" s="1">
+      <c r="Y45" s="2">
         <f t="shared" si="7"/>
-        <v>44.5</v>
+        <v>45.5</v>
       </c>
       <c r="AA45" t="s">
         <v>10</v>
@@ -4182,59 +4250,78 @@
       <c r="AB45">
         <v>1</v>
       </c>
-      <c r="AC45" s="2">
+      <c r="AC45" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD45" t="s">
         <v>9</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AE45" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="I46" s="1">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="7">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="8"/>
+        <v>91.552734375</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2">
         <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
+        <v>48</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <f>((1125 * L46)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="1">
+      <c r="N46" s="3"/>
+      <c r="O46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="2">
         <f t="shared" si="6"/>
-        <v>30.5</v>
-      </c>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2" t="s">
+        <v>31.5</v>
+      </c>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T46" s="2">
-        <v>3</v>
-      </c>
-      <c r="U46" s="2">
+      <c r="T46" s="3">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V46" s="2" t="s">
+      <c r="V46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W46" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="1">
+      <c r="W46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="2">
         <f t="shared" si="7"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA46" t="s">
         <v>10</v>
@@ -4242,57 +4329,72 @@
       <c r="AB46">
         <v>1</v>
       </c>
-      <c r="AC46" s="2">
+      <c r="AC46" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD46" t="s">
         <v>9</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AE46" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="I47" s="1">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
         <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
+        <v>49</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <f>((1125 * L47)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="3"/>
-      <c r="Q47" s="1">
+      <c r="N47" s="3"/>
+      <c r="O47" s="4"/>
+      <c r="Q47" s="2">
         <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T47" s="2">
-        <v>3</v>
-      </c>
-      <c r="U47" s="2">
+      <c r="T47" s="3">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V47" s="2" t="s">
+      <c r="V47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W47" s="4">
         <v>0.5</v>
       </c>
-      <c r="Y47" s="1">
+      <c r="Y47" s="2">
         <f t="shared" si="7"/>
-        <v>45.5</v>
+        <v>46.5</v>
       </c>
       <c r="AA47" t="s">
         <v>10</v>
@@ -4300,236 +4402,236 @@
       <c r="AB47">
         <v>1</v>
       </c>
-      <c r="AC47" s="2">
+      <c r="AC47" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD47" t="s">
         <v>9</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AE47" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="I48" s="1">
+      <c r="I48" s="2">
         <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="J48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
+      <c r="K48" s="3"/>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <f>((1125 * L48)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="N48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="1">
+      <c r="O48" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="2">
         <f t="shared" si="6"/>
-        <v>31.5</v>
-      </c>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2" t="s">
+        <v>32.5</v>
+      </c>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T48" s="2">
-        <v>2</v>
-      </c>
-      <c r="U48" s="2">
+      <c r="T48" s="3">
+        <v>2</v>
+      </c>
+      <c r="U48" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V48" s="2" t="s">
+      <c r="V48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W48" s="4">
         <v>4.5</v>
       </c>
-      <c r="Y48" s="1">
+      <c r="Y48" s="2">
         <f t="shared" si="7"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB48">
         <v>0</v>
       </c>
-      <c r="AC48" s="2">
+      <c r="AC48" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD48" t="s">
         <v>10</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AE48" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="49" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="I49" s="1">
+      <c r="I49" s="2">
         <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
+        <v>51</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <f>((1125 * L49)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="3"/>
-      <c r="Q49" s="1">
+      <c r="N49" s="3"/>
+      <c r="O49" s="4"/>
+      <c r="Q49" s="2">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T49" s="2">
-        <v>2</v>
-      </c>
-      <c r="U49" s="2">
+      <c r="T49" s="3">
+        <v>2</v>
+      </c>
+      <c r="U49" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V49" s="2" t="s">
+      <c r="V49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="4">
         <v>4</v>
       </c>
-      <c r="Y49" s="1">
+      <c r="Y49" s="2">
         <f t="shared" si="7"/>
-        <v>46.5</v>
+        <v>47.5</v>
       </c>
       <c r="AB49">
         <v>0</v>
       </c>
-      <c r="AC49" s="2">
+      <c r="AC49" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD49" t="s">
         <v>10</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AE49" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="I50" s="1">
+      <c r="I50" s="2">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
+        <v>52</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
         <f>((1125 * L50)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="1">
+      <c r="N50" s="3"/>
+      <c r="O50" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="2">
         <f t="shared" si="6"/>
-        <v>32.5</v>
-      </c>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2" t="s">
+        <v>33.5</v>
+      </c>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T50" s="2">
-        <v>2</v>
-      </c>
-      <c r="U50" s="2">
+      <c r="T50" s="3">
+        <v>2</v>
+      </c>
+      <c r="U50" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V50" s="2" t="s">
+      <c r="V50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W50" s="3">
+      <c r="W50" s="4">
         <v>3.5</v>
       </c>
-      <c r="Y50" s="1">
+      <c r="Y50" s="2">
         <f t="shared" si="7"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB50">
         <v>0</v>
       </c>
-      <c r="AC50" s="2">
+      <c r="AC50" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD50" t="s">
         <v>10</v>
       </c>
-      <c r="AE50" s="3">
+      <c r="AE50" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="51" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="I51" s="1">
+      <c r="I51" s="2">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="J51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
+      <c r="K51" s="3"/>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
         <f>((1125 * L51)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="N51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O51" s="3"/>
-      <c r="Q51" s="1">
+      <c r="O51" s="4"/>
+      <c r="Q51" s="2">
         <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="R51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S51" s="2" t="s">
+      <c r="S51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T51" s="2">
-        <v>3</v>
-      </c>
-      <c r="U51" s="2">
+      <c r="T51" s="3">
+        <v>3</v>
+      </c>
+      <c r="U51" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V51" s="2" t="s">
+      <c r="V51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W51" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y51" s="1">
+      <c r="W51" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y51" s="2">
         <f t="shared" si="7"/>
-        <v>47.5</v>
+        <v>48.5</v>
       </c>
       <c r="Z51" t="s">
         <v>11</v>
@@ -4540,59 +4642,59 @@
       <c r="AB51">
         <v>1</v>
       </c>
-      <c r="AC51" s="2">
+      <c r="AC51" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD51" t="s">
         <v>10</v>
       </c>
-      <c r="AE51" s="3">
+      <c r="AE51" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="I52" s="1">
+      <c r="I52" s="2">
         <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2">
-        <v>0</v>
-      </c>
-      <c r="M52" s="2">
+        <v>54</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <f>((1125 * L52)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="1">
+      <c r="N52" s="3"/>
+      <c r="O52" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="2">
         <f t="shared" si="6"/>
-        <v>33.5</v>
-      </c>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2" t="s">
+        <v>34.5</v>
+      </c>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T52" s="2">
-        <v>3</v>
-      </c>
-      <c r="U52" s="2">
+      <c r="T52" s="3">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V52" s="2" t="s">
+      <c r="V52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="4">
         <v>2.5</v>
       </c>
-      <c r="Y52" s="1">
+      <c r="Y52" s="2">
         <f t="shared" si="7"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA52" t="s">
         <v>11</v>
@@ -4600,57 +4702,57 @@
       <c r="AB52">
         <v>1</v>
       </c>
-      <c r="AC52" s="2">
+      <c r="AC52" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD52" t="s">
         <v>10</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AE52" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="53" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="I53" s="1">
+      <c r="I53" s="2">
         <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
+        <v>55</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
         <f>((1125 * L53)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="3"/>
-      <c r="Q53" s="1">
+      <c r="N53" s="3"/>
+      <c r="O53" s="4"/>
+      <c r="Q53" s="2">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T53" s="2">
-        <v>3</v>
-      </c>
-      <c r="U53" s="2">
+      <c r="T53" s="3">
+        <v>3</v>
+      </c>
+      <c r="U53" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V53" s="2" t="s">
+      <c r="V53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W53" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y53" s="1">
+      <c r="W53" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="2">
         <f t="shared" si="7"/>
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="AA53" t="s">
         <v>11</v>
@@ -4658,60 +4760,60 @@
       <c r="AB53">
         <v>1</v>
       </c>
-      <c r="AC53" s="2">
+      <c r="AC53" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD53" t="s">
         <v>10</v>
       </c>
-      <c r="AE53" s="3">
+      <c r="AE53" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="I54" s="1"/>
-      <c r="J54" s="2" t="s">
+      <c r="I54" s="2"/>
+      <c r="J54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
+      <c r="K54" s="3"/>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <f>((1125 * L54)/6144) * 100</f>
         <v>0</v>
       </c>
-      <c r="N54" s="2" t="s">
+      <c r="N54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O54" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="1">
+      <c r="O54" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2">
         <f t="shared" si="6"/>
-        <v>34.5</v>
-      </c>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2" t="s">
+        <v>35.5</v>
+      </c>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T54" s="2">
-        <v>3</v>
-      </c>
-      <c r="U54" s="2">
+      <c r="T54" s="3">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V54" s="2" t="s">
+      <c r="V54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W54" s="3">
+      <c r="W54" s="4">
         <v>1.5</v>
       </c>
-      <c r="Y54" s="1">
+      <c r="Y54" s="2">
         <f t="shared" si="7"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA54" t="s">
         <v>11</v>
@@ -4719,42 +4821,42 @@
       <c r="AB54">
         <v>1</v>
       </c>
-      <c r="AC54" s="2">
+      <c r="AC54" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD54" t="s">
         <v>10</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AE54" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="55" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="Q55" s="1">
+      <c r="Q55" s="2">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T55" s="2">
-        <v>3</v>
-      </c>
-      <c r="U55" s="2">
+      <c r="T55" s="3">
+        <v>3</v>
+      </c>
+      <c r="U55" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V55" s="2" t="s">
+      <c r="V55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W55" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y55" s="1">
+      <c r="W55" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="2">
         <f t="shared" si="7"/>
-        <v>49.5</v>
+        <v>50.5</v>
       </c>
       <c r="AA55" t="s">
         <v>11</v>
@@ -4762,42 +4864,42 @@
       <c r="AB55">
         <v>1</v>
       </c>
-      <c r="AC55" s="2">
+      <c r="AC55" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD55" t="s">
         <v>10</v>
       </c>
-      <c r="AE55" s="3">
+      <c r="AE55" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="Q56" s="1">
+      <c r="Q56" s="2">
         <f t="shared" si="6"/>
-        <v>35.5</v>
-      </c>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2" t="s">
+        <v>36.5</v>
+      </c>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T56" s="2">
-        <v>3</v>
-      </c>
-      <c r="U56" s="2">
+      <c r="T56" s="3">
+        <v>3</v>
+      </c>
+      <c r="U56" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V56" s="2" t="s">
+      <c r="V56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W56" s="3">
+      <c r="W56" s="4">
         <v>0.5</v>
       </c>
-      <c r="Y56" s="1">
+      <c r="Y56" s="2">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA56" t="s">
         <v>11</v>
@@ -4805,124 +4907,124 @@
       <c r="AB56">
         <v>1</v>
       </c>
-      <c r="AC56" s="2">
+      <c r="AC56" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD56" t="s">
         <v>10</v>
       </c>
-      <c r="AE56" s="3">
+      <c r="AE56" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="Q57" s="1">
+      <c r="Q57" s="2">
         <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="R57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R57" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S57" s="2" t="s">
+      <c r="S57" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T57" s="2">
-        <v>3</v>
-      </c>
-      <c r="U57" s="2">
+      <c r="T57" s="3">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V57" s="2" t="s">
+      <c r="V57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W57" s="3">
+      <c r="W57" s="4">
         <v>4.5</v>
       </c>
-      <c r="Y57" s="1">
+      <c r="Y57" s="2">
         <f t="shared" si="7"/>
-        <v>50.5</v>
+        <v>51.5</v>
       </c>
       <c r="AB57">
         <v>0</v>
       </c>
-      <c r="AC57" s="2">
+      <c r="AC57" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD57" t="s">
         <v>11</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AE57" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="58" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="Q58" s="1">
+      <c r="Q58" s="2">
         <f t="shared" si="6"/>
-        <v>36.5</v>
-      </c>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2" t="s">
+        <v>37.5</v>
+      </c>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T58" s="2">
-        <v>3</v>
-      </c>
-      <c r="U58" s="2">
+      <c r="T58" s="3">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V58" s="2" t="s">
+      <c r="V58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W58" s="4">
         <v>4</v>
       </c>
-      <c r="Y58" s="1">
+      <c r="Y58" s="2">
         <f t="shared" si="7"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB58">
         <v>0</v>
       </c>
-      <c r="AC58" s="2">
+      <c r="AC58" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD58" t="s">
         <v>11</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AE58" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="Q59" s="1">
+      <c r="Q59" s="2">
         <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T59" s="2">
-        <v>3</v>
-      </c>
-      <c r="U59" s="2">
+      <c r="T59" s="3">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V59" s="2" t="s">
+      <c r="V59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W59" s="3">
+      <c r="W59" s="4">
         <v>3.5</v>
       </c>
-      <c r="Y59" s="1">
+      <c r="Y59" s="2">
         <f t="shared" si="7"/>
-        <v>51.5</v>
+        <v>52.5</v>
       </c>
       <c r="Z59" t="s">
         <v>12</v>
@@ -4933,42 +5035,42 @@
       <c r="AB59">
         <v>1</v>
       </c>
-      <c r="AC59" s="2">
+      <c r="AC59" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD59" t="s">
         <v>11</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AE59" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="60" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="Q60" s="1">
+      <c r="Q60" s="2">
         <f t="shared" si="6"/>
-        <v>37.5</v>
-      </c>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2" t="s">
+        <v>38.5</v>
+      </c>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T60" s="2">
-        <v>3</v>
-      </c>
-      <c r="U60" s="2">
+      <c r="T60" s="3">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V60" s="2" t="s">
+      <c r="V60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W60" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y60" s="1">
+      <c r="W60" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y60" s="2">
         <f t="shared" si="7"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA60" t="s">
         <v>12</v>
@@ -4976,42 +5078,42 @@
       <c r="AB60">
         <v>1</v>
       </c>
-      <c r="AC60" s="2">
+      <c r="AC60" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD60" t="s">
         <v>11</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AE60" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="Q61" s="1">
+      <c r="Q61" s="2">
         <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T61" s="2">
-        <v>3</v>
-      </c>
-      <c r="U61" s="2">
+      <c r="T61" s="3">
+        <v>3</v>
+      </c>
+      <c r="U61" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V61" s="2" t="s">
+      <c r="V61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W61" s="3">
+      <c r="W61" s="4">
         <v>2.5</v>
       </c>
-      <c r="Y61" s="1">
+      <c r="Y61" s="2">
         <f t="shared" si="7"/>
-        <v>52.5</v>
+        <v>53.5</v>
       </c>
       <c r="AA61" t="s">
         <v>12</v>
@@ -5019,42 +5121,42 @@
       <c r="AB61">
         <v>1</v>
       </c>
-      <c r="AC61" s="2">
+      <c r="AC61" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD61" t="s">
         <v>11</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AE61" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="62" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="Q62" s="1">
+      <c r="Q62" s="2">
         <f t="shared" si="6"/>
-        <v>38.5</v>
-      </c>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2" t="s">
+        <v>39.5</v>
+      </c>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T62" s="2">
-        <v>3</v>
-      </c>
-      <c r="U62" s="2">
+      <c r="T62" s="3">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V62" s="2" t="s">
+      <c r="V62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W62" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y62" s="1">
+      <c r="W62" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y62" s="2">
         <f t="shared" si="7"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA62" t="s">
         <v>12</v>
@@ -5062,44 +5164,44 @@
       <c r="AB62">
         <v>1</v>
       </c>
-      <c r="AC62" s="2">
+      <c r="AC62" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD62" t="s">
         <v>11</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AE62" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="Q63" s="1">
+      <c r="Q63" s="2">
         <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="R63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R63" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S63" s="2" t="s">
+      <c r="S63" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T63" s="2">
-        <v>3</v>
-      </c>
-      <c r="U63" s="2">
+      <c r="T63" s="3">
+        <v>3</v>
+      </c>
+      <c r="U63" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V63" s="2" t="s">
+      <c r="V63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W63" s="3">
+      <c r="W63" s="4">
         <v>1.5</v>
       </c>
-      <c r="Y63" s="1">
+      <c r="Y63" s="2">
         <f t="shared" si="7"/>
-        <v>53.5</v>
+        <v>54.5</v>
       </c>
       <c r="AA63" t="s">
         <v>12</v>
@@ -5107,42 +5209,42 @@
       <c r="AB63">
         <v>1</v>
       </c>
-      <c r="AC63" s="2">
+      <c r="AC63" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD63" t="s">
         <v>11</v>
       </c>
-      <c r="AE63" s="3">
+      <c r="AE63" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="64" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="Q64" s="1">
+      <c r="Q64" s="2">
         <f t="shared" si="6"/>
-        <v>39.5</v>
-      </c>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2" t="s">
+        <v>40.5</v>
+      </c>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T64" s="2">
-        <v>3</v>
-      </c>
-      <c r="U64" s="2">
+      <c r="T64" s="3">
+        <v>3</v>
+      </c>
+      <c r="U64" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V64" s="2" t="s">
+      <c r="V64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W64" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y64" s="1">
+      <c r="W64" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="2">
         <f t="shared" si="7"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA64" t="s">
         <v>12</v>
@@ -5150,42 +5252,42 @@
       <c r="AB64">
         <v>1</v>
       </c>
-      <c r="AC64" s="2">
+      <c r="AC64" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD64" t="s">
         <v>11</v>
       </c>
-      <c r="AE64" s="3">
+      <c r="AE64" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q65" s="1">
+      <c r="Q65" s="2">
         <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T65" s="2">
-        <v>3</v>
-      </c>
-      <c r="U65" s="2">
+      <c r="T65" s="3">
+        <v>3</v>
+      </c>
+      <c r="U65" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V65" s="2" t="s">
+      <c r="V65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W65" s="3">
+      <c r="W65" s="4">
         <v>0.5</v>
       </c>
-      <c r="Y65" s="1">
+      <c r="Y65" s="2">
         <f t="shared" si="7"/>
-        <v>54.5</v>
+        <v>55.5</v>
       </c>
       <c r="AA65" t="s">
         <v>12</v>
@@ -5193,82 +5295,82 @@
       <c r="AB65">
         <v>1</v>
       </c>
-      <c r="AC65" s="2">
+      <c r="AC65" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD65" t="s">
         <v>11</v>
       </c>
-      <c r="AE65" s="3">
+      <c r="AE65" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q66" s="1">
+      <c r="Q66" s="2">
         <f t="shared" si="6"/>
-        <v>40.5</v>
-      </c>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2" t="s">
+        <v>41.5</v>
+      </c>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T66" s="2">
-        <v>2</v>
-      </c>
-      <c r="U66" s="2">
+      <c r="T66" s="3">
+        <v>2</v>
+      </c>
+      <c r="U66" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V66" s="2" t="s">
+      <c r="V66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W66" s="3">
+      <c r="W66" s="4">
         <v>4.5</v>
       </c>
-      <c r="Y66" s="1">
+      <c r="Y66" s="2">
         <f t="shared" si="7"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB66">
         <v>0</v>
       </c>
-      <c r="AC66" s="2">
+      <c r="AC66" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD66" t="s">
         <v>12</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AE66" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="67" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q67" s="1">
+      <c r="Q67" s="2">
         <f t="shared" si="6"/>
-        <v>41</v>
-      </c>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T67" s="2">
-        <v>2</v>
-      </c>
-      <c r="U67" s="2">
+      <c r="T67" s="3">
+        <v>2</v>
+      </c>
+      <c r="U67" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V67" s="2" t="s">
+      <c r="V67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W67" s="3">
+      <c r="W67" s="4">
         <v>4</v>
       </c>
-      <c r="Y67" s="1">
+      <c r="Y67" s="2">
         <f t="shared" si="7"/>
-        <v>55.5</v>
+        <v>56.5</v>
       </c>
       <c r="Z67" t="s">
         <v>13</v>
@@ -5279,42 +5381,42 @@
       <c r="AB67">
         <v>1</v>
       </c>
-      <c r="AC67" s="2">
+      <c r="AC67" s="3">
         <f t="shared" si="3"/>
         <v>36.62109375</v>
       </c>
       <c r="AD67" t="s">
         <v>12</v>
       </c>
-      <c r="AE67" s="3">
+      <c r="AE67" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="68" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q68" s="1">
+      <c r="Q68" s="2">
         <f t="shared" si="6"/>
-        <v>41.5</v>
-      </c>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2" t="s">
+        <v>42.5</v>
+      </c>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T68" s="2">
-        <v>2</v>
-      </c>
-      <c r="U68" s="2">
+      <c r="T68" s="3">
+        <v>2</v>
+      </c>
+      <c r="U68" s="3">
         <f t="shared" si="9"/>
         <v>54.931640625</v>
       </c>
-      <c r="V68" s="2" t="s">
+      <c r="V68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W68" s="3">
+      <c r="W68" s="4">
         <v>3.5</v>
       </c>
-      <c r="Y68" s="1">
+      <c r="Y68" s="2">
         <f t="shared" si="7"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA68" t="s">
         <v>13</v>
@@ -5322,44 +5424,44 @@
       <c r="AB68">
         <v>1</v>
       </c>
-      <c r="AC68" s="2">
+      <c r="AC68" s="3">
         <f t="shared" ref="AC68:AC115" si="10">((1125 * AB68)/(3 * 1024)) * 100</f>
         <v>36.62109375</v>
       </c>
       <c r="AD68" t="s">
         <v>12</v>
       </c>
-      <c r="AE68" s="3">
+      <c r="AE68" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="69" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q69" s="1">
+      <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q132" si="11">Q68+0.5</f>
-        <v>42</v>
-      </c>
-      <c r="R69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R69" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S69" s="2" t="s">
+      <c r="S69" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T69" s="2">
-        <v>3</v>
-      </c>
-      <c r="U69" s="2">
+      <c r="T69" s="3">
+        <v>3</v>
+      </c>
+      <c r="U69" s="3">
         <f t="shared" si="9"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V69" s="2" t="s">
+      <c r="V69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W69" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y69" s="1">
+      <c r="W69" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y69" s="2">
         <f t="shared" ref="Y69:Y115" si="12">Y68+0.5</f>
-        <v>56.5</v>
+        <v>57.5</v>
       </c>
       <c r="AA69" t="s">
         <v>13</v>
@@ -5367,42 +5469,42 @@
       <c r="AB69">
         <v>1</v>
       </c>
-      <c r="AC69" s="2">
+      <c r="AC69" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD69" t="s">
         <v>12</v>
       </c>
-      <c r="AE69" s="3">
+      <c r="AE69" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q70" s="1">
+      <c r="Q70" s="2">
         <f t="shared" si="11"/>
-        <v>42.5</v>
-      </c>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2" t="s">
+        <v>43.5</v>
+      </c>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T70" s="2">
-        <v>3</v>
-      </c>
-      <c r="U70" s="2">
+      <c r="T70" s="3">
+        <v>3</v>
+      </c>
+      <c r="U70" s="3">
         <f t="shared" ref="U70:U133" si="13">((1125 * T70)/(4 * 1024)) * 100</f>
         <v>82.3974609375</v>
       </c>
-      <c r="V70" s="2" t="s">
+      <c r="V70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W70" s="3">
+      <c r="W70" s="4">
         <v>2.5</v>
       </c>
-      <c r="Y70" s="1">
+      <c r="Y70" s="2">
         <f t="shared" si="12"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA70" t="s">
         <v>13</v>
@@ -5410,42 +5512,42 @@
       <c r="AB70">
         <v>1</v>
       </c>
-      <c r="AC70" s="2">
+      <c r="AC70" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD70" t="s">
         <v>12</v>
       </c>
-      <c r="AE70" s="3">
+      <c r="AE70" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="71" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q71" s="1">
+      <c r="Q71" s="2">
         <f t="shared" si="11"/>
-        <v>43</v>
-      </c>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T71" s="2">
-        <v>3</v>
-      </c>
-      <c r="U71" s="2">
+      <c r="T71" s="3">
+        <v>3</v>
+      </c>
+      <c r="U71" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V71" s="2" t="s">
+      <c r="V71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W71" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y71" s="1">
+      <c r="W71" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y71" s="2">
         <f t="shared" si="12"/>
-        <v>57.5</v>
+        <v>58.5</v>
       </c>
       <c r="AA71" t="s">
         <v>13</v>
@@ -5453,42 +5555,42 @@
       <c r="AB71">
         <v>1</v>
       </c>
-      <c r="AC71" s="2">
+      <c r="AC71" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD71" t="s">
         <v>12</v>
       </c>
-      <c r="AE71" s="3">
+      <c r="AE71" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q72" s="1">
+      <c r="Q72" s="2">
         <f t="shared" si="11"/>
-        <v>43.5</v>
-      </c>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2" t="s">
+        <v>44.5</v>
+      </c>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T72" s="2">
-        <v>3</v>
-      </c>
-      <c r="U72" s="2">
+      <c r="T72" s="3">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V72" s="2" t="s">
+      <c r="V72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="4">
         <v>1.5</v>
       </c>
-      <c r="Y72" s="1">
+      <c r="Y72" s="2">
         <f t="shared" si="12"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA72" t="s">
         <v>13</v>
@@ -5496,42 +5598,42 @@
       <c r="AB72">
         <v>1</v>
       </c>
-      <c r="AC72" s="2">
+      <c r="AC72" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD72" t="s">
         <v>12</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AE72" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="73" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q73" s="1">
+      <c r="Q73" s="2">
         <f t="shared" si="11"/>
-        <v>44</v>
-      </c>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T73" s="2">
-        <v>3</v>
-      </c>
-      <c r="U73" s="2">
+      <c r="T73" s="3">
+        <v>3</v>
+      </c>
+      <c r="U73" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V73" s="2" t="s">
+      <c r="V73" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W73" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y73" s="1">
+      <c r="W73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="2">
         <f t="shared" si="12"/>
-        <v>58.5</v>
+        <v>59.5</v>
       </c>
       <c r="AA73" t="s">
         <v>13</v>
@@ -5539,42 +5641,42 @@
       <c r="AB73">
         <v>1</v>
       </c>
-      <c r="AC73" s="2">
+      <c r="AC73" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD73" t="s">
         <v>12</v>
       </c>
-      <c r="AE73" s="3">
+      <c r="AE73" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q74" s="1">
+      <c r="Q74" s="2">
         <f t="shared" si="11"/>
-        <v>44.5</v>
-      </c>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2" t="s">
+        <v>45.5</v>
+      </c>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T74" s="2">
-        <v>3</v>
-      </c>
-      <c r="U74" s="2">
+      <c r="T74" s="3">
+        <v>3</v>
+      </c>
+      <c r="U74" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V74" s="2" t="s">
+      <c r="V74" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W74" s="3">
+      <c r="W74" s="4">
         <v>0.5</v>
       </c>
-      <c r="Y74" s="1">
+      <c r="Y74" s="2">
         <f t="shared" si="12"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA74" t="s">
         <v>13</v>
@@ -5582,44 +5684,44 @@
       <c r="AB74">
         <v>1</v>
       </c>
-      <c r="AC74" s="2">
+      <c r="AC74" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD74" t="s">
         <v>12</v>
       </c>
-      <c r="AE74" s="3">
+      <c r="AE74" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="75" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q75" s="1">
+      <c r="Q75" s="2">
         <f t="shared" si="11"/>
-        <v>45</v>
-      </c>
-      <c r="R75" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R75" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S75" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T75" s="2">
-        <v>2</v>
-      </c>
-      <c r="U75" s="2">
+      <c r="S75" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T75" s="3">
+        <v>2</v>
+      </c>
+      <c r="U75" s="3">
         <f t="shared" si="13"/>
         <v>54.931640625</v>
       </c>
-      <c r="V75" s="2" t="s">
+      <c r="V75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W75" s="3">
+      <c r="W75" s="4">
         <v>4.5</v>
       </c>
-      <c r="Y75" s="1">
+      <c r="Y75" s="2">
         <f t="shared" si="12"/>
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
       <c r="Z75" t="s">
         <v>14</v>
@@ -5630,42 +5732,42 @@
       <c r="AB75">
         <v>1</v>
       </c>
-      <c r="AC75" s="2">
+      <c r="AC75" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD75" t="s">
         <v>13</v>
       </c>
-      <c r="AE75" s="3">
+      <c r="AE75" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="76" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q76" s="1">
+      <c r="Q76" s="2">
         <f t="shared" si="11"/>
-        <v>45.5</v>
-      </c>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T76" s="2">
-        <v>2</v>
-      </c>
-      <c r="U76" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T76" s="3">
+        <v>2</v>
+      </c>
+      <c r="U76" s="3">
         <f t="shared" si="13"/>
         <v>54.931640625</v>
       </c>
-      <c r="V76" s="2" t="s">
+      <c r="V76" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W76" s="3">
+      <c r="W76" s="4">
         <v>4</v>
       </c>
-      <c r="Y76" s="1">
+      <c r="Y76" s="2">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA76" t="s">
         <v>14</v>
@@ -5673,42 +5775,42 @@
       <c r="AB76">
         <v>1</v>
       </c>
-      <c r="AC76" s="2">
+      <c r="AC76" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD76" t="s">
         <v>13</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AE76" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q77" s="1">
+      <c r="Q77" s="2">
         <f t="shared" si="11"/>
-        <v>46</v>
-      </c>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T77" s="2">
-        <v>2</v>
-      </c>
-      <c r="U77" s="2">
+        <v>47</v>
+      </c>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T77" s="3">
+        <v>2</v>
+      </c>
+      <c r="U77" s="3">
         <f t="shared" si="13"/>
         <v>54.931640625</v>
       </c>
-      <c r="V77" s="2" t="s">
+      <c r="V77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W77" s="3">
+      <c r="W77" s="4">
         <v>3.5</v>
       </c>
-      <c r="Y77" s="1">
+      <c r="Y77" s="2">
         <f t="shared" si="12"/>
-        <v>60.5</v>
+        <v>61.5</v>
       </c>
       <c r="AA77" t="s">
         <v>14</v>
@@ -5716,42 +5818,42 @@
       <c r="AB77">
         <v>1</v>
       </c>
-      <c r="AC77" s="2">
+      <c r="AC77" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD77" t="s">
         <v>13</v>
       </c>
-      <c r="AE77" s="3">
+      <c r="AE77" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="78" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q78" s="1">
+      <c r="Q78" s="2">
         <f t="shared" si="11"/>
-        <v>46.5</v>
-      </c>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T78" s="2">
-        <v>2</v>
-      </c>
-      <c r="U78" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T78" s="3">
+        <v>2</v>
+      </c>
+      <c r="U78" s="3">
         <f t="shared" si="13"/>
         <v>54.931640625</v>
       </c>
-      <c r="V78" s="2" t="s">
+      <c r="V78" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W78" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y78" s="1">
+      <c r="W78" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y78" s="2">
         <f t="shared" si="12"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA78" t="s">
         <v>14</v>
@@ -5759,42 +5861,42 @@
       <c r="AB78">
         <v>1</v>
       </c>
-      <c r="AC78" s="2">
+      <c r="AC78" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD78" t="s">
         <v>13</v>
       </c>
-      <c r="AE78" s="3">
+      <c r="AE78" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q79" s="1">
+      <c r="Q79" s="2">
         <f t="shared" si="11"/>
-        <v>47</v>
-      </c>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T79" s="2">
-        <v>2</v>
-      </c>
-      <c r="U79" s="2">
+        <v>48</v>
+      </c>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T79" s="3">
+        <v>2</v>
+      </c>
+      <c r="U79" s="3">
         <f t="shared" si="13"/>
         <v>54.931640625</v>
       </c>
-      <c r="V79" s="2" t="s">
+      <c r="V79" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W79" s="3">
+      <c r="W79" s="4">
         <v>2.5</v>
       </c>
-      <c r="Y79" s="1">
+      <c r="Y79" s="2">
         <f t="shared" si="12"/>
-        <v>61.5</v>
+        <v>62.5</v>
       </c>
       <c r="AA79" t="s">
         <v>14</v>
@@ -5802,42 +5904,42 @@
       <c r="AB79">
         <v>1</v>
       </c>
-      <c r="AC79" s="2">
+      <c r="AC79" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD79" t="s">
         <v>13</v>
       </c>
-      <c r="AE79" s="3">
+      <c r="AE79" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="80" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q80" s="1">
+      <c r="Q80" s="2">
         <f t="shared" si="11"/>
-        <v>47.5</v>
-      </c>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T80" s="2">
-        <v>2</v>
-      </c>
-      <c r="U80" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T80" s="3">
+        <v>2</v>
+      </c>
+      <c r="U80" s="3">
         <f t="shared" si="13"/>
         <v>54.931640625</v>
       </c>
-      <c r="V80" s="2" t="s">
+      <c r="V80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W80" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y80" s="1">
+      <c r="W80" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y80" s="2">
         <f t="shared" si="12"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA80" t="s">
         <v>14</v>
@@ -5845,44 +5947,44 @@
       <c r="AB80">
         <v>1</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AC80" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD80" t="s">
         <v>13</v>
       </c>
-      <c r="AE80" s="3">
+      <c r="AE80" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q81" s="1">
+      <c r="Q81" s="2">
         <f t="shared" si="11"/>
-        <v>48</v>
-      </c>
-      <c r="R81" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R81" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S81" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T81" s="2">
-        <v>3</v>
-      </c>
-      <c r="U81" s="2">
+      <c r="S81" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T81" s="3">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V81" s="2" t="s">
+      <c r="V81" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W81" s="3">
+      <c r="W81" s="4">
         <v>1.5</v>
       </c>
-      <c r="Y81" s="1">
+      <c r="Y81" s="2">
         <f t="shared" si="12"/>
-        <v>62.5</v>
+        <v>63.5</v>
       </c>
       <c r="AA81" t="s">
         <v>14</v>
@@ -5890,42 +5992,42 @@
       <c r="AB81">
         <v>1</v>
       </c>
-      <c r="AC81" s="2">
+      <c r="AC81" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD81" t="s">
         <v>13</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AE81" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="82" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q82" s="1">
+      <c r="Q82" s="2">
         <f t="shared" si="11"/>
-        <v>48.5</v>
-      </c>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T82" s="2">
-        <v>3</v>
-      </c>
-      <c r="U82" s="2">
+        <v>49.5</v>
+      </c>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T82" s="3">
+        <v>3</v>
+      </c>
+      <c r="U82" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V82" s="2" t="s">
+      <c r="V82" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W82" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y82" s="1">
+      <c r="W82" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="2">
         <f t="shared" si="12"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AA82" t="s">
         <v>14</v>
@@ -5933,88 +6035,88 @@
       <c r="AB82">
         <v>1</v>
       </c>
-      <c r="AC82" s="2">
+      <c r="AC82" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD82" t="s">
         <v>13</v>
       </c>
-      <c r="AE82" s="3">
+      <c r="AE82" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q83" s="1">
+      <c r="Q83" s="2">
         <f t="shared" si="11"/>
-        <v>49</v>
-      </c>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T83" s="2">
-        <v>3</v>
-      </c>
-      <c r="U83" s="2">
+        <v>50</v>
+      </c>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T83" s="3">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V83" s="2" t="s">
+      <c r="V83" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W83" s="3">
+      <c r="W83" s="4">
         <v>0.5</v>
       </c>
-      <c r="Y83" s="1">
+      <c r="Y83" s="2">
         <f t="shared" si="12"/>
-        <v>63.5</v>
+        <v>64.5</v>
       </c>
       <c r="Z83" t="s">
         <v>16</v>
       </c>
       <c r="AA83" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AB83">
         <v>2</v>
       </c>
-      <c r="AC83" s="2">
+      <c r="AC83" s="3">
         <f t="shared" si="10"/>
         <v>73.2421875</v>
       </c>
       <c r="AD83" t="s">
         <v>13</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AE83" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q84" s="1">
+      <c r="Q84" s="2">
         <f t="shared" si="11"/>
-        <v>49.5</v>
-      </c>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T84" s="2">
-        <v>2</v>
-      </c>
-      <c r="U84" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T84" s="3">
+        <v>2</v>
+      </c>
+      <c r="U84" s="3">
         <f t="shared" si="13"/>
         <v>54.931640625</v>
       </c>
-      <c r="V84" s="2" t="s">
+      <c r="V84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W84" s="3">
+      <c r="W84" s="4">
         <v>4.5</v>
       </c>
-      <c r="Y84" s="1">
+      <c r="Y84" s="2">
         <f t="shared" si="12"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA84" t="s">
         <v>16</v>
@@ -6022,42 +6124,42 @@
       <c r="AB84">
         <v>1</v>
       </c>
-      <c r="AC84" s="2">
+      <c r="AC84" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD84" t="s">
         <v>14</v>
       </c>
-      <c r="AE84" s="3">
+      <c r="AE84" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="85" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q85" s="1">
+      <c r="Q85" s="2">
         <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T85" s="2">
-        <v>2</v>
-      </c>
-      <c r="U85" s="2">
+        <v>51</v>
+      </c>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T85" s="3">
+        <v>2</v>
+      </c>
+      <c r="U85" s="3">
         <f t="shared" si="13"/>
         <v>54.931640625</v>
       </c>
-      <c r="V85" s="2" t="s">
+      <c r="V85" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W85" s="3">
+      <c r="W85" s="4">
         <v>4</v>
       </c>
-      <c r="Y85" s="1">
+      <c r="Y85" s="2">
         <f t="shared" si="12"/>
-        <v>64.5</v>
+        <v>65.5</v>
       </c>
       <c r="AA85" t="s">
         <v>16</v>
@@ -6065,42 +6167,42 @@
       <c r="AB85">
         <v>1</v>
       </c>
-      <c r="AC85" s="2">
+      <c r="AC85" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD85" t="s">
         <v>14</v>
       </c>
-      <c r="AE85" s="3">
+      <c r="AE85" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q86" s="1">
+      <c r="Q86" s="2">
         <f t="shared" si="11"/>
-        <v>50.5</v>
-      </c>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T86" s="2">
-        <v>2</v>
-      </c>
-      <c r="U86" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T86" s="3">
+        <v>2</v>
+      </c>
+      <c r="U86" s="3">
         <f t="shared" si="13"/>
         <v>54.931640625</v>
       </c>
-      <c r="V86" s="2" t="s">
+      <c r="V86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W86" s="3">
+      <c r="W86" s="4">
         <v>3.5</v>
       </c>
-      <c r="Y86" s="1">
+      <c r="Y86" s="2">
         <f t="shared" si="12"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA86" t="s">
         <v>16</v>
@@ -6108,44 +6210,44 @@
       <c r="AB86">
         <v>1</v>
       </c>
-      <c r="AC86" s="2">
+      <c r="AC86" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD86" t="s">
         <v>14</v>
       </c>
-      <c r="AE86" s="3">
+      <c r="AE86" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="87" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q87" s="1">
+      <c r="Q87" s="2">
         <f t="shared" si="11"/>
-        <v>51</v>
-      </c>
-      <c r="R87" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R87" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S87" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T87" s="2">
-        <v>3</v>
-      </c>
-      <c r="U87" s="2">
+      <c r="S87" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T87" s="3">
+        <v>3</v>
+      </c>
+      <c r="U87" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V87" s="2" t="s">
+      <c r="V87" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W87" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y87" s="1">
+      <c r="W87" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y87" s="2">
         <f t="shared" si="12"/>
-        <v>65.5</v>
+        <v>66.5</v>
       </c>
       <c r="AA87" t="s">
         <v>16</v>
@@ -6153,42 +6255,42 @@
       <c r="AB87">
         <v>1</v>
       </c>
-      <c r="AC87" s="2">
+      <c r="AC87" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD87" t="s">
         <v>14</v>
       </c>
-      <c r="AE87" s="3">
+      <c r="AE87" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q88" s="1">
+      <c r="Q88" s="2">
         <f t="shared" si="11"/>
-        <v>51.5</v>
-      </c>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T88" s="2">
-        <v>3</v>
-      </c>
-      <c r="U88" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T88" s="3">
+        <v>3</v>
+      </c>
+      <c r="U88" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V88" s="2" t="s">
+      <c r="V88" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W88" s="3">
+      <c r="W88" s="4">
         <v>2.5</v>
       </c>
-      <c r="Y88" s="1">
+      <c r="Y88" s="2">
         <f t="shared" si="12"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA88" t="s">
         <v>16</v>
@@ -6196,42 +6298,42 @@
       <c r="AB88">
         <v>1</v>
       </c>
-      <c r="AC88" s="2">
+      <c r="AC88" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD88" t="s">
         <v>14</v>
       </c>
-      <c r="AE88" s="3">
+      <c r="AE88" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="89" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q89" s="1">
+      <c r="Q89" s="2">
         <f t="shared" si="11"/>
-        <v>52</v>
-      </c>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T89" s="2">
-        <v>3</v>
-      </c>
-      <c r="U89" s="2">
+      <c r="R89" s="3"/>
+      <c r="S89" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T89" s="3">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V89" s="2" t="s">
+      <c r="V89" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W89" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y89" s="1">
+      <c r="W89" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y89" s="2">
         <f t="shared" si="12"/>
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="AA89" t="s">
         <v>16</v>
@@ -6239,42 +6341,42 @@
       <c r="AB89">
         <v>1</v>
       </c>
-      <c r="AC89" s="2">
+      <c r="AC89" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD89" t="s">
         <v>14</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AE89" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q90" s="1">
+      <c r="Q90" s="2">
         <f t="shared" si="11"/>
-        <v>52.5</v>
-      </c>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T90" s="2">
-        <v>3</v>
-      </c>
-      <c r="U90" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T90" s="3">
+        <v>3</v>
+      </c>
+      <c r="U90" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V90" s="2" t="s">
+      <c r="V90" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W90" s="3">
+      <c r="W90" s="4">
         <v>1.5</v>
       </c>
-      <c r="Y90" s="1">
+      <c r="Y90" s="2">
         <f t="shared" si="12"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA90" t="s">
         <v>16</v>
@@ -6282,133 +6384,133 @@
       <c r="AB90">
         <v>1</v>
       </c>
-      <c r="AC90" s="2">
+      <c r="AC90" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD90" t="s">
         <v>14</v>
       </c>
-      <c r="AE90" s="3">
+      <c r="AE90" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="91" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q91" s="1">
+      <c r="Q91" s="2">
         <f t="shared" si="11"/>
-        <v>53</v>
-      </c>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T91" s="2">
-        <v>3</v>
-      </c>
-      <c r="U91" s="2">
+        <v>54</v>
+      </c>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T91" s="3">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V91" s="2" t="s">
+      <c r="V91" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W91" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y91" s="1">
+      <c r="W91" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="2">
         <f t="shared" si="12"/>
-        <v>67.5</v>
+        <v>68.5</v>
       </c>
       <c r="Z91" t="s">
         <v>17</v>
       </c>
       <c r="AA91" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AB91">
         <v>2</v>
       </c>
-      <c r="AC91" s="2">
+      <c r="AC91" s="3">
         <f t="shared" si="10"/>
         <v>73.2421875</v>
       </c>
       <c r="AD91" t="s">
         <v>14</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AE91" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q92" s="1">
+      <c r="Q92" s="2">
         <f t="shared" si="11"/>
-        <v>53.5</v>
-      </c>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T92" s="2">
-        <v>3</v>
-      </c>
-      <c r="U92" s="2">
+        <v>54.5</v>
+      </c>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T92" s="3">
+        <v>3</v>
+      </c>
+      <c r="U92" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V92" s="2" t="s">
+      <c r="V92" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W92" s="3">
+      <c r="W92" s="4">
         <v>0.5</v>
       </c>
-      <c r="Y92" s="1">
+      <c r="Y92" s="2">
         <f t="shared" si="12"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA92" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AB92">
         <v>2</v>
       </c>
-      <c r="AC92" s="2">
+      <c r="AC92" s="3">
         <f t="shared" si="10"/>
         <v>73.2421875</v>
       </c>
       <c r="AD92" t="s">
         <v>14</v>
       </c>
-      <c r="AE92" s="3">
+      <c r="AE92" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="93" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q93" s="1">
+      <c r="Q93" s="2">
         <f t="shared" si="11"/>
-        <v>54</v>
-      </c>
-      <c r="R93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R93" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S93" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T93" s="2">
-        <v>3</v>
-      </c>
-      <c r="U93" s="2">
+      <c r="S93" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T93" s="3">
+        <v>3</v>
+      </c>
+      <c r="U93" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V93" s="2" t="s">
+      <c r="V93" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W93" s="3">
+      <c r="W93" s="4">
         <v>4.5</v>
       </c>
-      <c r="Y93" s="1">
+      <c r="Y93" s="2">
         <f t="shared" si="12"/>
-        <v>68.5</v>
+        <v>69.5</v>
       </c>
       <c r="AA93" t="s">
         <v>17</v>
@@ -6416,42 +6518,42 @@
       <c r="AB93">
         <v>1</v>
       </c>
-      <c r="AC93" s="2">
+      <c r="AC93" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD93" t="s">
         <v>16</v>
       </c>
-      <c r="AE93" s="3">
+      <c r="AE93" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="94" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q94" s="1">
+      <c r="Q94" s="2">
         <f t="shared" si="11"/>
-        <v>54.5</v>
-      </c>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T94" s="2">
-        <v>3</v>
-      </c>
-      <c r="U94" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T94" s="3">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V94" s="2" t="s">
+      <c r="V94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W94" s="3">
+      <c r="W94" s="4">
         <v>4</v>
       </c>
-      <c r="Y94" s="1">
+      <c r="Y94" s="2">
         <f t="shared" si="12"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA94" t="s">
         <v>17</v>
@@ -6459,42 +6561,42 @@
       <c r="AB94">
         <v>1</v>
       </c>
-      <c r="AC94" s="2">
+      <c r="AC94" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD94" t="s">
         <v>16</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AE94" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q95" s="1">
+      <c r="Q95" s="2">
         <f t="shared" si="11"/>
-        <v>55</v>
-      </c>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T95" s="2">
-        <v>3</v>
-      </c>
-      <c r="U95" s="2">
+        <v>56</v>
+      </c>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T95" s="3">
+        <v>3</v>
+      </c>
+      <c r="U95" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V95" s="2" t="s">
+      <c r="V95" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W95" s="3">
+      <c r="W95" s="4">
         <v>3.5</v>
       </c>
-      <c r="Y95" s="1">
+      <c r="Y95" s="2">
         <f t="shared" si="12"/>
-        <v>69.5</v>
+        <v>70.5</v>
       </c>
       <c r="AA95" t="s">
         <v>17</v>
@@ -6502,42 +6604,42 @@
       <c r="AB95">
         <v>1</v>
       </c>
-      <c r="AC95" s="2">
+      <c r="AC95" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD95" t="s">
         <v>16</v>
       </c>
-      <c r="AE95" s="3">
+      <c r="AE95" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="96" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q96" s="1">
+      <c r="Q96" s="2">
         <f t="shared" si="11"/>
-        <v>55.5</v>
-      </c>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T96" s="2">
-        <v>3</v>
-      </c>
-      <c r="U96" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T96" s="3">
+        <v>3</v>
+      </c>
+      <c r="U96" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V96" s="2" t="s">
+      <c r="V96" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W96" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y96" s="1">
+      <c r="W96" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y96" s="2">
         <f t="shared" si="12"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA96" t="s">
         <v>17</v>
@@ -6545,42 +6647,42 @@
       <c r="AB96">
         <v>1</v>
       </c>
-      <c r="AC96" s="2">
+      <c r="AC96" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD96" t="s">
         <v>16</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AE96" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q97" s="1">
+      <c r="Q97" s="2">
         <f t="shared" si="11"/>
-        <v>56</v>
-      </c>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T97" s="2">
-        <v>3</v>
-      </c>
-      <c r="U97" s="2">
+        <v>57</v>
+      </c>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T97" s="3">
+        <v>3</v>
+      </c>
+      <c r="U97" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V97" s="2" t="s">
+      <c r="V97" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W97" s="3">
+      <c r="W97" s="4">
         <v>2.5</v>
       </c>
-      <c r="Y97" s="1">
+      <c r="Y97" s="2">
         <f t="shared" si="12"/>
-        <v>70.5</v>
+        <v>71.5</v>
       </c>
       <c r="AA97" t="s">
         <v>17</v>
@@ -6588,42 +6690,42 @@
       <c r="AB97">
         <v>1</v>
       </c>
-      <c r="AC97" s="2">
+      <c r="AC97" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD97" t="s">
         <v>16</v>
       </c>
-      <c r="AE97" s="3">
+      <c r="AE97" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="98" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q98" s="1">
+      <c r="Q98" s="2">
         <f t="shared" si="11"/>
-        <v>56.5</v>
-      </c>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T98" s="2">
-        <v>3</v>
-      </c>
-      <c r="U98" s="2">
+        <v>57.5</v>
+      </c>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T98" s="3">
+        <v>3</v>
+      </c>
+      <c r="U98" s="3">
         <f t="shared" si="13"/>
         <v>82.3974609375</v>
       </c>
-      <c r="V98" s="2" t="s">
+      <c r="V98" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W98" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y98" s="1">
+      <c r="W98" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y98" s="2">
         <f t="shared" si="12"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA98" t="s">
         <v>17</v>
@@ -6631,176 +6733,176 @@
       <c r="AB98">
         <v>1</v>
       </c>
-      <c r="AC98" s="2">
+      <c r="AC98" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD98" t="s">
         <v>16</v>
       </c>
-      <c r="AE98" s="3">
+      <c r="AE98" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q99" s="1">
+      <c r="Q99" s="2">
         <f t="shared" si="11"/>
-        <v>57</v>
-      </c>
-      <c r="R99" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R99" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S99" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T99" s="2">
-        <v>3</v>
-      </c>
-      <c r="U99" s="2">
+      <c r="S99" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T99" s="3">
+        <v>3</v>
+      </c>
+      <c r="U99" s="3">
         <f>((1125 * T99)/(4 * 1024)) * 100</f>
         <v>82.3974609375</v>
       </c>
-      <c r="V99" s="2" t="s">
+      <c r="V99" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W99" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y99" s="1">
+      <c r="W99" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y99" s="2">
         <f t="shared" si="12"/>
-        <v>71.5</v>
+        <v>72.5</v>
       </c>
       <c r="Z99" t="s">
         <v>19</v>
       </c>
       <c r="AA99" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB99">
         <v>2</v>
       </c>
-      <c r="AC99" s="2">
+      <c r="AC99" s="3">
         <f t="shared" si="10"/>
         <v>73.2421875</v>
       </c>
       <c r="AD99" t="s">
         <v>16</v>
       </c>
-      <c r="AE99" s="3">
+      <c r="AE99" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="100" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q100" s="1">
+      <c r="Q100" s="2">
         <f t="shared" si="11"/>
-        <v>57.5</v>
-      </c>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T100" s="2">
-        <v>3</v>
-      </c>
-      <c r="U100" s="2">
+        <v>58.5</v>
+      </c>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T100" s="3">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3">
         <f>((1125 * T100)/(4 * 1024)) * 100</f>
         <v>82.3974609375</v>
       </c>
-      <c r="V100" s="2" t="s">
+      <c r="V100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W100" s="3">
+      <c r="W100" s="4">
         <v>2.5</v>
       </c>
-      <c r="Y100" s="1">
+      <c r="Y100" s="2">
         <f t="shared" si="12"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA100" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB100">
         <v>2</v>
       </c>
-      <c r="AC100" s="2">
+      <c r="AC100" s="3">
         <f t="shared" si="10"/>
         <v>73.2421875</v>
       </c>
       <c r="AD100" t="s">
         <v>16</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AE100" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q101" s="1">
+      <c r="Q101" s="2">
         <f t="shared" si="11"/>
+        <v>59</v>
+      </c>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T101" s="2">
-        <v>3</v>
-      </c>
-      <c r="U101" s="2">
+      <c r="T101" s="3">
+        <v>3</v>
+      </c>
+      <c r="U101" s="3">
         <f>((1125 * T101)/(4 * 1024)) * 100</f>
         <v>82.3974609375</v>
       </c>
-      <c r="V101" s="2" t="s">
+      <c r="V101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W101" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y101" s="1">
+      <c r="W101" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y101" s="2">
         <f t="shared" si="12"/>
-        <v>72.5</v>
+        <v>73.5</v>
       </c>
       <c r="AA101" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB101">
         <v>2</v>
       </c>
-      <c r="AC101" s="2">
+      <c r="AC101" s="3">
         <f t="shared" si="10"/>
         <v>73.2421875</v>
       </c>
       <c r="AD101" t="s">
         <v>16</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AE101" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q102" s="1">
+      <c r="Q102" s="2">
         <f t="shared" si="11"/>
-        <v>58.5</v>
-      </c>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T102" s="2">
-        <v>3</v>
-      </c>
-      <c r="U102" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T102" s="3">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3">
         <f>((1125 * T102)/(4 * 1024)) * 100</f>
         <v>82.3974609375</v>
       </c>
-      <c r="V102" s="2" t="s">
+      <c r="V102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W102" s="3">
+      <c r="W102" s="4">
         <v>1.5</v>
       </c>
-      <c r="Y102" s="1">
+      <c r="Y102" s="2">
         <f t="shared" si="12"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA102" t="s">
         <v>19</v>
@@ -6808,42 +6910,42 @@
       <c r="AB102">
         <v>1</v>
       </c>
-      <c r="AC102" s="2">
+      <c r="AC102" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD102" t="s">
         <v>17</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AE102" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="103" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q103" s="1">
+      <c r="Q103" s="2">
         <f t="shared" si="11"/>
-        <v>59</v>
-      </c>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T103" s="2">
-        <v>3</v>
-      </c>
-      <c r="U103" s="2">
+        <v>60</v>
+      </c>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T103" s="3">
+        <v>3</v>
+      </c>
+      <c r="U103" s="3">
         <f>((1125 * T103)/(4 * 1024)) * 100</f>
         <v>82.3974609375</v>
       </c>
-      <c r="V103" s="2" t="s">
+      <c r="V103" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W103" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y103" s="1">
+      <c r="W103" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y103" s="2">
         <f t="shared" si="12"/>
-        <v>73.5</v>
+        <v>74.5</v>
       </c>
       <c r="AA103" t="s">
         <v>19</v>
@@ -6851,42 +6953,42 @@
       <c r="AB103">
         <v>1</v>
       </c>
-      <c r="AC103" s="2">
+      <c r="AC103" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD103" t="s">
         <v>17</v>
       </c>
-      <c r="AE103" s="3">
+      <c r="AE103" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q104" s="1">
+      <c r="Q104" s="2">
         <f t="shared" si="11"/>
-        <v>59.5</v>
-      </c>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T104" s="2">
-        <v>3</v>
-      </c>
-      <c r="U104" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T104" s="3">
+        <v>3</v>
+      </c>
+      <c r="U104" s="3">
         <f>((1125 * T104)/(4 * 1024)) * 100</f>
         <v>82.3974609375</v>
       </c>
-      <c r="V104" s="2" t="s">
+      <c r="V104" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W104" s="3">
+      <c r="W104" s="4">
         <v>0.5</v>
       </c>
-      <c r="Y104" s="1">
+      <c r="Y104" s="2">
         <f t="shared" si="12"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA104" t="s">
         <v>19</v>
@@ -6894,44 +6996,44 @@
       <c r="AB104">
         <v>1</v>
       </c>
-      <c r="AC104" s="2">
+      <c r="AC104" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD104" t="s">
         <v>17</v>
       </c>
-      <c r="AE104" s="3">
+      <c r="AE104" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="105" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q105" s="1">
+      <c r="Q105" s="2">
         <f t="shared" si="11"/>
-        <v>60</v>
-      </c>
-      <c r="R105" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R105" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S105" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T105" s="2">
-        <v>3</v>
-      </c>
-      <c r="U105" s="2">
+      <c r="S105" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T105" s="3">
+        <v>3</v>
+      </c>
+      <c r="U105" s="3">
         <f>((1125 * T105)/(4 * 1024)) * 100</f>
         <v>82.3974609375</v>
       </c>
-      <c r="V105" s="2" t="s">
+      <c r="V105" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W105" s="3">
+      <c r="W105" s="4">
         <v>4.5</v>
       </c>
-      <c r="Y105" s="1">
+      <c r="Y105" s="2">
         <f t="shared" si="12"/>
-        <v>74.5</v>
+        <v>75.5</v>
       </c>
       <c r="AA105" t="s">
         <v>19</v>
@@ -6939,21 +7041,21 @@
       <c r="AB105">
         <v>1</v>
       </c>
-      <c r="AC105" s="2">
+      <c r="AC105" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD105" t="s">
         <v>17</v>
       </c>
-      <c r="AE105" s="3">
+      <c r="AE105" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="106" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Y106" s="1">
+      <c r="Y106" s="2">
         <f t="shared" si="12"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA106" t="s">
         <v>19</v>
@@ -6961,112 +7063,112 @@
       <c r="AB106">
         <v>1</v>
       </c>
-      <c r="AC106" s="2">
+      <c r="AC106" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD106" t="s">
         <v>17</v>
       </c>
-      <c r="AE106" s="3">
+      <c r="AE106" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="107" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Y107" s="1">
+      <c r="Y107" s="2">
         <f t="shared" si="12"/>
-        <v>75.5</v>
+        <v>76.5</v>
       </c>
       <c r="Z107" t="s">
         <v>20</v>
       </c>
       <c r="AA107" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AB107">
         <v>2</v>
       </c>
-      <c r="AC107" s="2">
+      <c r="AC107" s="3">
         <f t="shared" si="10"/>
         <v>73.2421875</v>
       </c>
       <c r="AD107" t="s">
         <v>17</v>
       </c>
-      <c r="AE107" s="3">
+      <c r="AE107" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Y108" s="1">
+      <c r="Y108" s="2">
         <f t="shared" si="12"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA108" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AB108">
         <v>2</v>
       </c>
-      <c r="AC108" s="2">
+      <c r="AC108" s="3">
         <f t="shared" si="10"/>
         <v>73.2421875</v>
       </c>
       <c r="AD108" t="s">
         <v>17</v>
       </c>
-      <c r="AE108" s="3">
+      <c r="AE108" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="109" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Y109" s="1">
+      <c r="Y109" s="2">
         <f t="shared" si="12"/>
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="AA109" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AB109">
         <v>2</v>
       </c>
-      <c r="AC109" s="2">
+      <c r="AC109" s="3">
         <f t="shared" si="10"/>
         <v>73.2421875</v>
       </c>
       <c r="AD109" t="s">
         <v>17</v>
       </c>
-      <c r="AE109" s="3">
+      <c r="AE109" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Y110" s="1">
+      <c r="Y110" s="2">
         <f t="shared" si="12"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA110" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AB110">
         <v>2</v>
       </c>
-      <c r="AC110" s="2">
+      <c r="AC110" s="3">
         <f t="shared" si="10"/>
         <v>73.2421875</v>
       </c>
       <c r="AD110" t="s">
         <v>17</v>
       </c>
-      <c r="AE110" s="3">
+      <c r="AE110" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="111" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Y111" s="1">
+      <c r="Y111" s="2">
         <f t="shared" si="12"/>
-        <v>77.5</v>
+        <v>78.5</v>
       </c>
       <c r="AA111" t="s">
         <v>20</v>
@@ -7074,21 +7176,21 @@
       <c r="AB111">
         <v>1</v>
       </c>
-      <c r="AC111" s="2">
+      <c r="AC111" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD111" t="s">
         <v>19</v>
       </c>
-      <c r="AE111" s="3">
+      <c r="AE111" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="112" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Y112" s="1">
+      <c r="Y112" s="2">
         <f t="shared" si="12"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA112" t="s">
         <v>20</v>
@@ -7096,21 +7198,21 @@
       <c r="AB112">
         <v>1</v>
       </c>
-      <c r="AC112" s="2">
+      <c r="AC112" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD112" t="s">
         <v>19</v>
       </c>
-      <c r="AE112" s="3">
+      <c r="AE112" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="113" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y113" s="1">
+      <c r="Y113" s="2">
         <f t="shared" si="12"/>
-        <v>78.5</v>
+        <v>79.5</v>
       </c>
       <c r="AA113" t="s">
         <v>20</v>
@@ -7118,21 +7220,21 @@
       <c r="AB113">
         <v>1</v>
       </c>
-      <c r="AC113" s="2">
+      <c r="AC113" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD113" t="s">
         <v>19</v>
       </c>
-      <c r="AE113" s="3">
+      <c r="AE113" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="114" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y114" s="1">
+      <c r="Y114" s="2">
         <f t="shared" si="12"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA114" t="s">
         <v>20</v>
@@ -7140,40 +7242,72 @@
       <c r="AB114">
         <v>1</v>
       </c>
-      <c r="AC114" s="2">
+      <c r="AC114" s="3">
         <f t="shared" si="10"/>
         <v>36.62109375</v>
       </c>
       <c r="AD114" t="s">
         <v>19</v>
       </c>
-      <c r="AE114" s="3">
+      <c r="AE114" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="115" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y115" s="1">
+      <c r="Y115" s="2">
         <f t="shared" si="12"/>
-        <v>79.5</v>
+        <v>80.5</v>
       </c>
       <c r="Z115" t="s">
         <v>23</v>
       </c>
       <c r="AA115" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AB115">
         <v>2</v>
       </c>
-      <c r="AC115" s="2">
+      <c r="AC115" s="3">
         <f t="shared" si="10"/>
         <v>73.2421875</v>
       </c>
       <c r="AD115" t="s">
         <v>19</v>
       </c>
-      <c r="AE115" s="3">
+      <c r="AE115" s="4">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="116" spans="25:31" x14ac:dyDescent="0.25">
+      <c r="AD116" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE116" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="25:31" x14ac:dyDescent="0.25">
+      <c r="AD117" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE117" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="118" spans="25:31" x14ac:dyDescent="0.25">
+      <c r="AD118" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE118" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="25:31" x14ac:dyDescent="0.25">
+      <c r="AD119" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE119" s="8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -7183,7 +7317,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E42">
+  <conditionalFormatting sqref="E3:E46">
     <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
       <formula>100</formula>
     </cfRule>

--- a/Theorie/GoBackN/Paketverlust.xlsx
+++ b/Theorie/GoBackN/Paketverlust.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josef\iCloudDrive\Documents\HTWG\Sem_5\Rechnernetze\Aufgaben\Theorie\GoBackN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josef\Documents\HTWG\Rechnernetze\Theorie\GoBackN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDFF46C-4E3C-43D6-BB27-369C4CCB1CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E81016-8250-42F3-83B4-8121D0BA6D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{69491014-9A9B-4CFF-8D82-84A350BFE43A}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="24675" windowHeight="10725" xr2:uid="{69491014-9A9B-4CFF-8D82-84A350BFE43A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -654,9 +654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2623F30B-D532-4166-93EC-EACEBFB4DBB0}">
   <dimension ref="A1:AE119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="58" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD119" sqref="AD119"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="2">
-        <f>A5+1+3</f>
+        <f>A5+3</f>
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -892,7 +892,8 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0</v>
+        <f t="shared" ref="A4:A41" si="2">A3+1</f>
+        <v>1</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -919,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M3:M53" si="2">((1125 * L4)/6144) * 100</f>
+        <f t="shared" ref="M4" si="3">((1125 * L4)/6144) * 100</f>
         <v>0</v>
       </c>
       <c r="N4" s="3"/>
@@ -951,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <f t="shared" ref="AC4:AC67" si="3">((1125 * AB4)/(3 * 1024)) * 100</f>
+        <f t="shared" ref="AC4:AC67" si="4">((1125 * AB4)/(3 * 1024)) * 100</f>
         <v>0</v>
       </c>
       <c r="AD4" t="s">
@@ -963,8 +964,8 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A41" si="4">A4+1</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -1026,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD5" t="s">
@@ -1038,8 +1039,8 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1068,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f>((1125 * L6)/6144) * 100</f>
+        <f t="shared" ref="M6:M37" si="9">((1125 * L6)/6144) * 100</f>
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -1087,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U69" si="9">((1125 * T6)/(4 * 1024)) * 100</f>
+        <f t="shared" ref="U6:U69" si="10">((1125 * T6)/(4 * 1024)) * 100</f>
         <v>0</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1104,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD6" t="s">
@@ -1116,8 +1117,8 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -1148,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <f>((1125 * L7)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N7" s="3"/>
@@ -1163,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V7" s="3" t="s">
@@ -1180,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD7" t="s">
@@ -1192,8 +1193,8 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -1222,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <f>((1125 * L8)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N8" s="3"/>
@@ -1239,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V8" s="3" t="s">
@@ -1256,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD8" t="s">
@@ -1268,8 +1269,8 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
@@ -1302,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <f>((1125 * L9)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
@@ -1323,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V9" s="3" t="s">
@@ -1340,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD9" t="s">
@@ -1352,8 +1353,8 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -1382,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <f>((1125 * L10)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N10" s="3"/>
@@ -1401,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V10" s="3" t="s">
@@ -1418,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD10" t="s">
@@ -1430,8 +1431,8 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -1462,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <f>((1125 * L11)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N11" s="3"/>
@@ -1479,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="U11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V11" s="3" t="s">
@@ -1502,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD11" t="s">
@@ -1514,8 +1515,8 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -1546,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <f>((1125 * L12)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
@@ -1565,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1582,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD12" t="s">
@@ -1594,8 +1595,8 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -1626,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3">
-        <f>((1125 * L13)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N13" s="3"/>
@@ -1641,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V13" s="3" t="s">
@@ -1658,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD13" t="s">
@@ -1670,8 +1671,8 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -1700,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <f>((1125 * L14)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N14" s="3"/>
@@ -1717,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
@@ -1734,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD14" t="s">
@@ -1746,8 +1747,8 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -1780,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <f>((1125 * L15)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
@@ -1801,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V15" s="3" t="s">
@@ -1818,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD15" t="s">
@@ -1830,8 +1831,8 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
@@ -1860,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="3">
-        <f>((1125 * L16)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N16" s="3"/>
@@ -1879,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V16" s="3" t="s">
@@ -1896,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD16" t="s">
@@ -1909,7 +1910,7 @@
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>A16+1</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -1940,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <f>((1125 * L17)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N17" s="3"/>
@@ -1957,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V17" s="3" t="s">
@@ -1974,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD17" t="s">
@@ -1986,8 +1987,8 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
@@ -2018,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <f>((1125 * L18)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -2039,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V18" s="3" t="s">
@@ -2056,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD18" t="s">
@@ -2068,8 +2069,8 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
@@ -2100,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="3">
-        <f>((1125 * L19)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N19" s="3"/>
@@ -2117,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V19" s="3" t="s">
@@ -2140,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD19" t="s">
@@ -2152,8 +2153,8 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
@@ -2182,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <f>((1125 * L20)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N20" s="3"/>
@@ -2201,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V20" s="3" t="s">
@@ -2221,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD20" t="s">
@@ -2233,8 +2234,8 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>14</v>
@@ -2267,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <f>((1125 * L21)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2288,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V21" s="3" t="s">
@@ -2305,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD21" t="s">
@@ -2317,8 +2318,8 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
@@ -2347,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <f>((1125 * L22)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N22" s="3"/>
@@ -2366,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V22" s="3" t="s">
@@ -2383,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD22" t="s">
@@ -2395,8 +2396,8 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>15</v>
@@ -2427,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <f>((1125 * L23)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N23" s="3"/>
@@ -2444,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V23" s="3" t="s">
@@ -2461,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD23" t="s">
@@ -2473,8 +2474,8 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
@@ -2505,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <f>((1125 * L24)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2526,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V24" s="3" t="s">
@@ -2543,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD24" t="s">
@@ -2555,8 +2556,8 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>16</v>
@@ -2587,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="3">
-        <f>((1125 * L25)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N25" s="3"/>
@@ -2604,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V25" s="3" t="s">
@@ -2621,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD25" t="s">
@@ -2633,8 +2634,8 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
@@ -2663,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <f>((1125 * L26)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N26" s="3"/>
@@ -2682,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V26" s="3" t="s">
@@ -2699,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD26" t="s">
@@ -2711,8 +2712,8 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
@@ -2745,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <f>((1125 * L27)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2766,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V27" s="3" t="s">
@@ -2789,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD27" t="s">
@@ -2801,8 +2802,8 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
@@ -2831,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="3">
-        <f>((1125 * L28)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N28" s="3"/>
@@ -2850,7 +2851,7 @@
         <v>2</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V28" s="3" t="s">
@@ -2870,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD28" t="s">
@@ -2882,8 +2883,8 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>18</v>
@@ -2914,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
-        <f>((1125 * L29)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N29" s="3"/>
@@ -2931,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V29" s="3" t="s">
@@ -2951,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD29" t="s">
@@ -2963,8 +2964,8 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
@@ -2995,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="3">
-        <f>((1125 * L30)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -3016,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="U30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V30" s="3" t="s">
@@ -3033,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD30" t="s">
@@ -3045,8 +3046,8 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>19</v>
@@ -3077,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="3">
-        <f>((1125 * L31)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N31" s="3"/>
@@ -3094,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="U31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V31" s="3" t="s">
@@ -3111,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD31" t="s">
@@ -3123,8 +3124,8 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
@@ -3153,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <f>((1125 * L32)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N32" s="3"/>
@@ -3172,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="U32" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.4658203125</v>
       </c>
       <c r="V32" s="3" t="s">
@@ -3189,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD32" t="s">
@@ -3201,8 +3202,8 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="4"/>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>20</v>
@@ -3235,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <f>((1125 * L33)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -3256,7 +3257,7 @@
         <v>2</v>
       </c>
       <c r="U33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V33" s="3" t="s">
@@ -3273,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD33" t="s">
@@ -3285,8 +3286,8 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
@@ -3315,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="3">
-        <f>((1125 * L34)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N34" s="3"/>
@@ -3334,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="U34" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V34" s="3" t="s">
@@ -3351,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD34" t="s">
@@ -3363,8 +3364,8 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="4"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>21</v>
@@ -3395,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <f>((1125 * L35)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N35" s="3"/>
@@ -3412,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="U35" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V35" s="3" t="s">
@@ -3435,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD35" t="s">
@@ -3447,8 +3448,8 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
@@ -3479,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="3">
-        <f>((1125 * L36)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
@@ -3500,7 +3501,7 @@
         <v>2</v>
       </c>
       <c r="U36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V36" s="3" t="s">
@@ -3520,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD36" t="s">
@@ -3532,8 +3533,8 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>22</v>
@@ -3564,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <f>((1125 * L37)/6144) * 100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N37" s="3"/>
@@ -3581,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="U37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V37" s="3" t="s">
@@ -3601,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD37" t="s">
@@ -3613,8 +3614,8 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
@@ -3643,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <f>((1125 * L38)/6144) * 100</f>
+        <f t="shared" ref="M38:M69" si="11">((1125 * L38)/6144) * 100</f>
         <v>0</v>
       </c>
       <c r="N38" s="3"/>
@@ -3662,7 +3663,7 @@
         <v>2</v>
       </c>
       <c r="U38" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V38" s="3" t="s">
@@ -3682,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD38" t="s">
@@ -3694,8 +3695,8 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>23</v>
@@ -3728,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="3">
-        <f>((1125 * L39)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -3749,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="U39" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V39" s="3" t="s">
@@ -3766,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD39" t="s">
@@ -3778,8 +3779,8 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <f t="shared" si="2"/>
+        <v>37</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
@@ -3808,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="3">
-        <f>((1125 * L40)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N40" s="3"/>
@@ -3827,7 +3828,7 @@
         <v>2</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V40" s="3" t="s">
@@ -3844,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD40" t="s">
@@ -3856,8 +3857,8 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <f t="shared" si="4"/>
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>24</v>
@@ -3888,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <f>((1125 * L41)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N41" s="3"/>
@@ -3905,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="U41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V41" s="3" t="s">
@@ -3922,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD41" t="s">
@@ -3965,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <f>((1125 * L42)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -3986,7 +3987,7 @@
         <v>2</v>
       </c>
       <c r="U42" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V42" s="3" t="s">
@@ -4003,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD42" t="s">
@@ -4046,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <f>((1125 * L43)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N43" s="3"/>
@@ -4063,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="U43" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V43" s="3" t="s">
@@ -4086,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD43" t="s">
@@ -4126,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <f>((1125 * L44)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N44" s="3"/>
@@ -4145,7 +4146,7 @@
         <v>2</v>
       </c>
       <c r="U44" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V44" s="3" t="s">
@@ -4165,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD44" t="s">
@@ -4210,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <f>((1125 * L45)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -4231,7 +4232,7 @@
         <v>3</v>
       </c>
       <c r="U45" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V45" s="3" t="s">
@@ -4251,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD45" t="s">
@@ -4291,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <f>((1125 * L46)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N46" s="3"/>
@@ -4310,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="U46" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V46" s="3" t="s">
@@ -4330,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD46" t="s">
@@ -4366,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <f>((1125 * L47)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N47" s="3"/>
@@ -4383,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V47" s="3" t="s">
@@ -4403,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD47" t="s">
@@ -4426,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <f>((1125 * L48)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -4447,7 +4448,7 @@
         <v>2</v>
       </c>
       <c r="U48" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V48" s="3" t="s">
@@ -4464,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD48" t="s">
@@ -4485,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <f>((1125 * L49)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N49" s="3"/>
@@ -4502,7 +4503,7 @@
         <v>2</v>
       </c>
       <c r="U49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V49" s="3" t="s">
@@ -4519,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD49" t="s">
@@ -4540,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="3">
-        <f>((1125 * L50)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N50" s="3"/>
@@ -4559,7 +4560,7 @@
         <v>2</v>
       </c>
       <c r="U50" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V50" s="3" t="s">
@@ -4576,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD50" t="s">
@@ -4599,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="3">
-        <f>((1125 * L51)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
@@ -4620,7 +4621,7 @@
         <v>3</v>
       </c>
       <c r="U51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V51" s="3" t="s">
@@ -4643,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD51" t="s">
@@ -4664,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <f>((1125 * L52)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N52" s="3"/>
@@ -4683,7 +4684,7 @@
         <v>3</v>
       </c>
       <c r="U52" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V52" s="3" t="s">
@@ -4703,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD52" t="s">
@@ -4724,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="3">
-        <f>((1125 * L53)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N53" s="3"/>
@@ -4741,7 +4742,7 @@
         <v>3</v>
       </c>
       <c r="U53" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V53" s="3" t="s">
@@ -4761,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD53" t="s">
@@ -4781,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <f>((1125 * L54)/6144) * 100</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
@@ -4802,7 +4803,7 @@
         <v>3</v>
       </c>
       <c r="U54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V54" s="3" t="s">
@@ -4822,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD54" t="s">
@@ -4845,7 +4846,7 @@
         <v>3</v>
       </c>
       <c r="U55" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V55" s="3" t="s">
@@ -4865,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD55" t="s">
@@ -4888,7 +4889,7 @@
         <v>3</v>
       </c>
       <c r="U56" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V56" s="3" t="s">
@@ -4908,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD56" t="s">
@@ -4933,7 +4934,7 @@
         <v>3</v>
       </c>
       <c r="U57" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V57" s="3" t="s">
@@ -4950,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD57" t="s">
@@ -4973,7 +4974,7 @@
         <v>3</v>
       </c>
       <c r="U58" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V58" s="3" t="s">
@@ -4990,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD58" t="s">
@@ -5013,7 +5014,7 @@
         <v>3</v>
       </c>
       <c r="U59" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V59" s="3" t="s">
@@ -5036,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="AC59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD59" t="s">
@@ -5059,7 +5060,7 @@
         <v>3</v>
       </c>
       <c r="U60" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V60" s="3" t="s">
@@ -5079,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD60" t="s">
@@ -5102,7 +5103,7 @@
         <v>3</v>
       </c>
       <c r="U61" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V61" s="3" t="s">
@@ -5122,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="AC61" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD61" t="s">
@@ -5145,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="U62" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V62" s="3" t="s">
@@ -5165,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AC62" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD62" t="s">
@@ -5190,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="U63" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V63" s="3" t="s">
@@ -5210,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD63" t="s">
@@ -5233,7 +5234,7 @@
         <v>3</v>
       </c>
       <c r="U64" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V64" s="3" t="s">
@@ -5253,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="AC64" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD64" t="s">
@@ -5276,7 +5277,7 @@
         <v>3</v>
       </c>
       <c r="U65" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V65" s="3" t="s">
@@ -5296,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="AC65" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD65" t="s">
@@ -5319,7 +5320,7 @@
         <v>2</v>
       </c>
       <c r="U66" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V66" s="3" t="s">
@@ -5336,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD66" t="s">
@@ -5359,7 +5360,7 @@
         <v>2</v>
       </c>
       <c r="U67" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V67" s="3" t="s">
@@ -5382,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="AC67" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.62109375</v>
       </c>
       <c r="AD67" t="s">
@@ -5405,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="U68" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.931640625</v>
       </c>
       <c r="V68" s="3" t="s">
@@ -5425,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="AC68" s="3">
-        <f t="shared" ref="AC68:AC115" si="10">((1125 * AB68)/(3 * 1024)) * 100</f>
+        <f t="shared" ref="AC68:AC115" si="12">((1125 * AB68)/(3 * 1024)) * 100</f>
         <v>36.62109375</v>
       </c>
       <c r="AD68" t="s">
@@ -5437,7 +5438,7 @@
     </row>
     <row r="69" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q69" s="2">
-        <f t="shared" ref="Q69:Q132" si="11">Q68+0.5</f>
+        <f t="shared" ref="Q69:Q105" si="13">Q68+0.5</f>
         <v>43</v>
       </c>
       <c r="R69" s="3" t="s">
@@ -5450,7 +5451,7 @@
         <v>3</v>
       </c>
       <c r="U69" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>82.3974609375</v>
       </c>
       <c r="V69" s="3" t="s">
@@ -5460,7 +5461,7 @@
         <v>3</v>
       </c>
       <c r="Y69" s="2">
-        <f t="shared" ref="Y69:Y115" si="12">Y68+0.5</f>
+        <f t="shared" ref="Y69:Y115" si="14">Y68+0.5</f>
         <v>57.5</v>
       </c>
       <c r="AA69" t="s">
@@ -5470,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="AC69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD69" t="s">
@@ -5482,7 +5483,7 @@
     </row>
     <row r="70" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q70" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>43.5</v>
       </c>
       <c r="R70" s="3"/>
@@ -5493,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="U70" s="3">
-        <f t="shared" ref="U70:U133" si="13">((1125 * T70)/(4 * 1024)) * 100</f>
+        <f t="shared" ref="U70:U98" si="15">((1125 * T70)/(4 * 1024)) * 100</f>
         <v>82.3974609375</v>
       </c>
       <c r="V70" s="3" t="s">
@@ -5503,7 +5504,7 @@
         <v>2.5</v>
       </c>
       <c r="Y70" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>58</v>
       </c>
       <c r="AA70" t="s">
@@ -5513,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="AC70" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD70" t="s">
@@ -5525,7 +5526,7 @@
     </row>
     <row r="71" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q71" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="R71" s="3"/>
@@ -5536,7 +5537,7 @@
         <v>3</v>
       </c>
       <c r="U71" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V71" s="3" t="s">
@@ -5546,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="Y71" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>58.5</v>
       </c>
       <c r="AA71" t="s">
@@ -5556,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="AC71" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD71" t="s">
@@ -5568,7 +5569,7 @@
     </row>
     <row r="72" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q72" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44.5</v>
       </c>
       <c r="R72" s="3"/>
@@ -5579,7 +5580,7 @@
         <v>3</v>
       </c>
       <c r="U72" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V72" s="3" t="s">
@@ -5589,7 +5590,7 @@
         <v>1.5</v>
       </c>
       <c r="Y72" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>59</v>
       </c>
       <c r="AA72" t="s">
@@ -5599,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="AC72" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD72" t="s">
@@ -5611,7 +5612,7 @@
     </row>
     <row r="73" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q73" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="R73" s="3"/>
@@ -5622,7 +5623,7 @@
         <v>3</v>
       </c>
       <c r="U73" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V73" s="3" t="s">
@@ -5632,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="Y73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>59.5</v>
       </c>
       <c r="AA73" t="s">
@@ -5642,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="AC73" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD73" t="s">
@@ -5654,7 +5655,7 @@
     </row>
     <row r="74" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q74" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>45.5</v>
       </c>
       <c r="R74" s="3"/>
@@ -5665,7 +5666,7 @@
         <v>3</v>
       </c>
       <c r="U74" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V74" s="3" t="s">
@@ -5675,7 +5676,7 @@
         <v>0.5</v>
       </c>
       <c r="Y74" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="AA74" t="s">
@@ -5685,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="AC74" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD74" t="s">
@@ -5697,7 +5698,7 @@
     </row>
     <row r="75" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q75" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="R75" s="6" t="s">
@@ -5710,7 +5711,7 @@
         <v>2</v>
       </c>
       <c r="U75" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>54.931640625</v>
       </c>
       <c r="V75" s="3" t="s">
@@ -5720,7 +5721,7 @@
         <v>4.5</v>
       </c>
       <c r="Y75" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>60.5</v>
       </c>
       <c r="Z75" t="s">
@@ -5733,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="AC75" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD75" t="s">
@@ -5745,7 +5746,7 @@
     </row>
     <row r="76" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q76" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>46.5</v>
       </c>
       <c r="R76" s="3"/>
@@ -5756,7 +5757,7 @@
         <v>2</v>
       </c>
       <c r="U76" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>54.931640625</v>
       </c>
       <c r="V76" s="3" t="s">
@@ -5766,7 +5767,7 @@
         <v>4</v>
       </c>
       <c r="Y76" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>61</v>
       </c>
       <c r="AA76" t="s">
@@ -5776,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="AC76" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD76" t="s">
@@ -5788,7 +5789,7 @@
     </row>
     <row r="77" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q77" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
       <c r="R77" s="3"/>
@@ -5799,7 +5800,7 @@
         <v>2</v>
       </c>
       <c r="U77" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>54.931640625</v>
       </c>
       <c r="V77" s="3" t="s">
@@ -5809,7 +5810,7 @@
         <v>3.5</v>
       </c>
       <c r="Y77" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>61.5</v>
       </c>
       <c r="AA77" t="s">
@@ -5819,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="AC77" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD77" t="s">
@@ -5831,7 +5832,7 @@
     </row>
     <row r="78" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q78" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>47.5</v>
       </c>
       <c r="R78" s="3"/>
@@ -5842,7 +5843,7 @@
         <v>2</v>
       </c>
       <c r="U78" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>54.931640625</v>
       </c>
       <c r="V78" s="3" t="s">
@@ -5852,7 +5853,7 @@
         <v>3</v>
       </c>
       <c r="Y78" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
       <c r="AA78" t="s">
@@ -5862,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="AC78" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD78" t="s">
@@ -5874,7 +5875,7 @@
     </row>
     <row r="79" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q79" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="R79" s="3"/>
@@ -5885,7 +5886,7 @@
         <v>2</v>
       </c>
       <c r="U79" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>54.931640625</v>
       </c>
       <c r="V79" s="3" t="s">
@@ -5895,7 +5896,7 @@
         <v>2.5</v>
       </c>
       <c r="Y79" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>62.5</v>
       </c>
       <c r="AA79" t="s">
@@ -5905,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="AC79" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD79" t="s">
@@ -5917,7 +5918,7 @@
     </row>
     <row r="80" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q80" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>48.5</v>
       </c>
       <c r="R80" s="3"/>
@@ -5928,7 +5929,7 @@
         <v>2</v>
       </c>
       <c r="U80" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>54.931640625</v>
       </c>
       <c r="V80" s="3" t="s">
@@ -5938,7 +5939,7 @@
         <v>2</v>
       </c>
       <c r="Y80" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>63</v>
       </c>
       <c r="AA80" t="s">
@@ -5948,7 +5949,7 @@
         <v>1</v>
       </c>
       <c r="AC80" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD80" t="s">
@@ -5960,7 +5961,7 @@
     </row>
     <row r="81" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q81" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="R81" s="5" t="s">
@@ -5973,7 +5974,7 @@
         <v>3</v>
       </c>
       <c r="U81" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V81" s="3" t="s">
@@ -5983,7 +5984,7 @@
         <v>1.5</v>
       </c>
       <c r="Y81" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>63.5</v>
       </c>
       <c r="AA81" t="s">
@@ -5993,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="AC81" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD81" t="s">
@@ -6005,7 +6006,7 @@
     </row>
     <row r="82" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q82" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>49.5</v>
       </c>
       <c r="R82" s="3"/>
@@ -6016,7 +6017,7 @@
         <v>3</v>
       </c>
       <c r="U82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V82" s="3" t="s">
@@ -6026,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="Y82" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
       <c r="AA82" t="s">
@@ -6036,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="AC82" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD82" t="s">
@@ -6048,7 +6049,7 @@
     </row>
     <row r="83" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q83" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="R83" s="3"/>
@@ -6059,7 +6060,7 @@
         <v>3</v>
       </c>
       <c r="U83" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V83" s="3" t="s">
@@ -6069,7 +6070,7 @@
         <v>0.5</v>
       </c>
       <c r="Y83" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>64.5</v>
       </c>
       <c r="Z83" t="s">
@@ -6082,7 +6083,7 @@
         <v>2</v>
       </c>
       <c r="AC83" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73.2421875</v>
       </c>
       <c r="AD83" t="s">
@@ -6094,7 +6095,7 @@
     </row>
     <row r="84" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q84" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50.5</v>
       </c>
       <c r="R84" s="3"/>
@@ -6105,7 +6106,7 @@
         <v>2</v>
       </c>
       <c r="U84" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>54.931640625</v>
       </c>
       <c r="V84" s="3" t="s">
@@ -6115,7 +6116,7 @@
         <v>4.5</v>
       </c>
       <c r="Y84" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>65</v>
       </c>
       <c r="AA84" t="s">
@@ -6125,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="AC84" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD84" t="s">
@@ -6137,7 +6138,7 @@
     </row>
     <row r="85" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q85" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>51</v>
       </c>
       <c r="R85" s="3"/>
@@ -6148,7 +6149,7 @@
         <v>2</v>
       </c>
       <c r="U85" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>54.931640625</v>
       </c>
       <c r="V85" s="3" t="s">
@@ -6158,7 +6159,7 @@
         <v>4</v>
       </c>
       <c r="Y85" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>65.5</v>
       </c>
       <c r="AA85" t="s">
@@ -6168,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="AC85" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD85" t="s">
@@ -6180,7 +6181,7 @@
     </row>
     <row r="86" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q86" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>51.5</v>
       </c>
       <c r="R86" s="3"/>
@@ -6191,7 +6192,7 @@
         <v>2</v>
       </c>
       <c r="U86" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>54.931640625</v>
       </c>
       <c r="V86" s="3" t="s">
@@ -6201,7 +6202,7 @@
         <v>3.5</v>
       </c>
       <c r="Y86" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>66</v>
       </c>
       <c r="AA86" t="s">
@@ -6211,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="AC86" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD86" t="s">
@@ -6223,7 +6224,7 @@
     </row>
     <row r="87" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q87" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
       <c r="R87" s="3" t="s">
@@ -6236,7 +6237,7 @@
         <v>3</v>
       </c>
       <c r="U87" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V87" s="3" t="s">
@@ -6246,7 +6247,7 @@
         <v>3</v>
       </c>
       <c r="Y87" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>66.5</v>
       </c>
       <c r="AA87" t="s">
@@ -6256,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="AC87" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD87" t="s">
@@ -6268,7 +6269,7 @@
     </row>
     <row r="88" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q88" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>52.5</v>
       </c>
       <c r="R88" s="3"/>
@@ -6279,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="U88" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V88" s="3" t="s">
@@ -6289,7 +6290,7 @@
         <v>2.5</v>
       </c>
       <c r="Y88" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>67</v>
       </c>
       <c r="AA88" t="s">
@@ -6299,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="AC88" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD88" t="s">
@@ -6311,7 +6312,7 @@
     </row>
     <row r="89" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q89" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>53</v>
       </c>
       <c r="R89" s="3"/>
@@ -6322,7 +6323,7 @@
         <v>3</v>
       </c>
       <c r="U89" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V89" s="3" t="s">
@@ -6332,7 +6333,7 @@
         <v>2</v>
       </c>
       <c r="Y89" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>67.5</v>
       </c>
       <c r="AA89" t="s">
@@ -6342,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="AC89" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD89" t="s">
@@ -6354,7 +6355,7 @@
     </row>
     <row r="90" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q90" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>53.5</v>
       </c>
       <c r="R90" s="3"/>
@@ -6365,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="U90" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V90" s="3" t="s">
@@ -6375,7 +6376,7 @@
         <v>1.5</v>
       </c>
       <c r="Y90" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>68</v>
       </c>
       <c r="AA90" t="s">
@@ -6385,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="AC90" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD90" t="s">
@@ -6397,7 +6398,7 @@
     </row>
     <row r="91" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q91" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
       <c r="R91" s="3"/>
@@ -6408,7 +6409,7 @@
         <v>3</v>
       </c>
       <c r="U91" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V91" s="3" t="s">
@@ -6418,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="Y91" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>68.5</v>
       </c>
       <c r="Z91" t="s">
@@ -6431,7 +6432,7 @@
         <v>2</v>
       </c>
       <c r="AC91" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73.2421875</v>
       </c>
       <c r="AD91" t="s">
@@ -6443,7 +6444,7 @@
     </row>
     <row r="92" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>54.5</v>
       </c>
       <c r="R92" s="3"/>
@@ -6454,7 +6455,7 @@
         <v>3</v>
       </c>
       <c r="U92" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V92" s="3" t="s">
@@ -6464,7 +6465,7 @@
         <v>0.5</v>
       </c>
       <c r="Y92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
       <c r="AA92" t="s">
@@ -6474,7 +6475,7 @@
         <v>2</v>
       </c>
       <c r="AC92" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73.2421875</v>
       </c>
       <c r="AD92" t="s">
@@ -6486,7 +6487,7 @@
     </row>
     <row r="93" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q93" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>55</v>
       </c>
       <c r="R93" s="3" t="s">
@@ -6499,7 +6500,7 @@
         <v>3</v>
       </c>
       <c r="U93" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V93" s="3" t="s">
@@ -6509,7 +6510,7 @@
         <v>4.5</v>
       </c>
       <c r="Y93" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>69.5</v>
       </c>
       <c r="AA93" t="s">
@@ -6519,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="AC93" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD93" t="s">
@@ -6531,7 +6532,7 @@
     </row>
     <row r="94" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q94" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>55.5</v>
       </c>
       <c r="R94" s="3"/>
@@ -6542,7 +6543,7 @@
         <v>3</v>
       </c>
       <c r="U94" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V94" s="3" t="s">
@@ -6552,7 +6553,7 @@
         <v>4</v>
       </c>
       <c r="Y94" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
       <c r="AA94" t="s">
@@ -6562,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="AC94" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD94" t="s">
@@ -6574,7 +6575,7 @@
     </row>
     <row r="95" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q95" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="R95" s="3"/>
@@ -6585,7 +6586,7 @@
         <v>3</v>
       </c>
       <c r="U95" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V95" s="3" t="s">
@@ -6595,7 +6596,7 @@
         <v>3.5</v>
       </c>
       <c r="Y95" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>70.5</v>
       </c>
       <c r="AA95" t="s">
@@ -6605,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="AC95" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD95" t="s">
@@ -6617,7 +6618,7 @@
     </row>
     <row r="96" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q96" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>56.5</v>
       </c>
       <c r="R96" s="3"/>
@@ -6628,7 +6629,7 @@
         <v>3</v>
       </c>
       <c r="U96" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V96" s="3" t="s">
@@ -6638,7 +6639,7 @@
         <v>3</v>
       </c>
       <c r="Y96" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>71</v>
       </c>
       <c r="AA96" t="s">
@@ -6648,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="AC96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD96" t="s">
@@ -6660,7 +6661,7 @@
     </row>
     <row r="97" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q97" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>57</v>
       </c>
       <c r="R97" s="3"/>
@@ -6671,7 +6672,7 @@
         <v>3</v>
       </c>
       <c r="U97" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V97" s="3" t="s">
@@ -6681,7 +6682,7 @@
         <v>2.5</v>
       </c>
       <c r="Y97" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>71.5</v>
       </c>
       <c r="AA97" t="s">
@@ -6691,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="AC97" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD97" t="s">
@@ -6703,7 +6704,7 @@
     </row>
     <row r="98" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q98" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>57.5</v>
       </c>
       <c r="R98" s="3"/>
@@ -6714,7 +6715,7 @@
         <v>3</v>
       </c>
       <c r="U98" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82.3974609375</v>
       </c>
       <c r="V98" s="3" t="s">
@@ -6724,7 +6725,7 @@
         <v>2</v>
       </c>
       <c r="Y98" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="AA98" t="s">
@@ -6734,7 +6735,7 @@
         <v>1</v>
       </c>
       <c r="AC98" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD98" t="s">
@@ -6746,7 +6747,7 @@
     </row>
     <row r="99" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q99" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>58</v>
       </c>
       <c r="R99" s="5" t="s">
@@ -6759,7 +6760,7 @@
         <v>3</v>
       </c>
       <c r="U99" s="3">
-        <f>((1125 * T99)/(4 * 1024)) * 100</f>
+        <f t="shared" ref="U99:U105" si="16">((1125 * T99)/(4 * 1024)) * 100</f>
         <v>82.3974609375</v>
       </c>
       <c r="V99" s="3" t="s">
@@ -6769,7 +6770,7 @@
         <v>3</v>
       </c>
       <c r="Y99" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>72.5</v>
       </c>
       <c r="Z99" t="s">
@@ -6782,7 +6783,7 @@
         <v>2</v>
       </c>
       <c r="AC99" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73.2421875</v>
       </c>
       <c r="AD99" t="s">
@@ -6794,7 +6795,7 @@
     </row>
     <row r="100" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q100" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>58.5</v>
       </c>
       <c r="R100" s="3"/>
@@ -6805,7 +6806,7 @@
         <v>3</v>
       </c>
       <c r="U100" s="3">
-        <f>((1125 * T100)/(4 * 1024)) * 100</f>
+        <f t="shared" si="16"/>
         <v>82.3974609375</v>
       </c>
       <c r="V100" s="3" t="s">
@@ -6815,7 +6816,7 @@
         <v>2.5</v>
       </c>
       <c r="Y100" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>73</v>
       </c>
       <c r="AA100" t="s">
@@ -6825,7 +6826,7 @@
         <v>2</v>
       </c>
       <c r="AC100" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73.2421875</v>
       </c>
       <c r="AD100" t="s">
@@ -6837,7 +6838,7 @@
     </row>
     <row r="101" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q101" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>59</v>
       </c>
       <c r="R101" s="3"/>
@@ -6848,7 +6849,7 @@
         <v>3</v>
       </c>
       <c r="U101" s="3">
-        <f>((1125 * T101)/(4 * 1024)) * 100</f>
+        <f t="shared" si="16"/>
         <v>82.3974609375</v>
       </c>
       <c r="V101" s="3" t="s">
@@ -6858,7 +6859,7 @@
         <v>2</v>
       </c>
       <c r="Y101" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>73.5</v>
       </c>
       <c r="AA101" t="s">
@@ -6868,7 +6869,7 @@
         <v>2</v>
       </c>
       <c r="AC101" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73.2421875</v>
       </c>
       <c r="AD101" t="s">
@@ -6880,7 +6881,7 @@
     </row>
     <row r="102" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q102" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>59.5</v>
       </c>
       <c r="R102" s="3"/>
@@ -6891,7 +6892,7 @@
         <v>3</v>
       </c>
       <c r="U102" s="3">
-        <f>((1125 * T102)/(4 * 1024)) * 100</f>
+        <f t="shared" si="16"/>
         <v>82.3974609375</v>
       </c>
       <c r="V102" s="3" t="s">
@@ -6901,7 +6902,7 @@
         <v>1.5</v>
       </c>
       <c r="Y102" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
       <c r="AA102" t="s">
@@ -6911,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="AC102" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD102" t="s">
@@ -6923,7 +6924,7 @@
     </row>
     <row r="103" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q103" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="R103" s="3"/>
@@ -6934,7 +6935,7 @@
         <v>3</v>
       </c>
       <c r="U103" s="3">
-        <f>((1125 * T103)/(4 * 1024)) * 100</f>
+        <f t="shared" si="16"/>
         <v>82.3974609375</v>
       </c>
       <c r="V103" s="3" t="s">
@@ -6944,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="Y103" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>74.5</v>
       </c>
       <c r="AA103" t="s">
@@ -6954,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="AC103" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD103" t="s">
@@ -6966,7 +6967,7 @@
     </row>
     <row r="104" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q104" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>60.5</v>
       </c>
       <c r="R104" s="3"/>
@@ -6977,7 +6978,7 @@
         <v>3</v>
       </c>
       <c r="U104" s="3">
-        <f>((1125 * T104)/(4 * 1024)) * 100</f>
+        <f t="shared" si="16"/>
         <v>82.3974609375</v>
       </c>
       <c r="V104" s="3" t="s">
@@ -6987,7 +6988,7 @@
         <v>0.5</v>
       </c>
       <c r="Y104" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="AA104" t="s">
@@ -6997,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="AC104" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD104" t="s">
@@ -7009,7 +7010,7 @@
     </row>
     <row r="105" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q105" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>61</v>
       </c>
       <c r="R105" s="3" t="s">
@@ -7022,7 +7023,7 @@
         <v>3</v>
       </c>
       <c r="U105" s="3">
-        <f>((1125 * T105)/(4 * 1024)) * 100</f>
+        <f t="shared" si="16"/>
         <v>82.3974609375</v>
       </c>
       <c r="V105" s="3" t="s">
@@ -7032,7 +7033,7 @@
         <v>4.5</v>
       </c>
       <c r="Y105" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>75.5</v>
       </c>
       <c r="AA105" t="s">
@@ -7042,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="AC105" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD105" t="s">
@@ -7054,7 +7055,7 @@
     </row>
     <row r="106" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Y106" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>76</v>
       </c>
       <c r="AA106" t="s">
@@ -7064,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="AC106" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD106" t="s">
@@ -7076,7 +7077,7 @@
     </row>
     <row r="107" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Y107" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>76.5</v>
       </c>
       <c r="Z107" t="s">
@@ -7089,7 +7090,7 @@
         <v>2</v>
       </c>
       <c r="AC107" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73.2421875</v>
       </c>
       <c r="AD107" t="s">
@@ -7101,7 +7102,7 @@
     </row>
     <row r="108" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Y108" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>77</v>
       </c>
       <c r="AA108" t="s">
@@ -7111,7 +7112,7 @@
         <v>2</v>
       </c>
       <c r="AC108" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73.2421875</v>
       </c>
       <c r="AD108" t="s">
@@ -7123,7 +7124,7 @@
     </row>
     <row r="109" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Y109" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>77.5</v>
       </c>
       <c r="AA109" t="s">
@@ -7133,7 +7134,7 @@
         <v>2</v>
       </c>
       <c r="AC109" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73.2421875</v>
       </c>
       <c r="AD109" t="s">
@@ -7145,7 +7146,7 @@
     </row>
     <row r="110" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Y110" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>78</v>
       </c>
       <c r="AA110" t="s">
@@ -7155,7 +7156,7 @@
         <v>2</v>
       </c>
       <c r="AC110" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73.2421875</v>
       </c>
       <c r="AD110" t="s">
@@ -7167,7 +7168,7 @@
     </row>
     <row r="111" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Y111" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>78.5</v>
       </c>
       <c r="AA111" t="s">
@@ -7177,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="AC111" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD111" t="s">
@@ -7189,7 +7190,7 @@
     </row>
     <row r="112" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Y112" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>79</v>
       </c>
       <c r="AA112" t="s">
@@ -7199,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="AC112" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD112" t="s">
@@ -7211,7 +7212,7 @@
     </row>
     <row r="113" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y113" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>79.5</v>
       </c>
       <c r="AA113" t="s">
@@ -7221,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="AC113" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD113" t="s">
@@ -7233,7 +7234,7 @@
     </row>
     <row r="114" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y114" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="AA114" t="s">
@@ -7243,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="AC114" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.62109375</v>
       </c>
       <c r="AD114" t="s">
@@ -7255,7 +7256,7 @@
     </row>
     <row r="115" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y115" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>80.5</v>
       </c>
       <c r="Z115" t="s">
@@ -7268,7 +7269,7 @@
         <v>2</v>
       </c>
       <c r="AC115" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73.2421875</v>
       </c>
       <c r="AD115" t="s">
